--- a/Cruzeiro Mineiro.xlsx
+++ b/Cruzeiro Mineiro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7d1f36477029f8e0/Área de Trabalho/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="8_{29F0D014-0EEE-421E-9734-BCE3A86F6460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16A2B419-32CF-4583-967E-D52D6C0AA1F0}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="8_{29F0D014-0EEE-421E-9734-BCE3A86F6460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D9536A3-C365-402B-92FF-528146019DE0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{97C8D34B-E831-4AB2-B3D5-BBDD2F70C2D4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="4" xr2:uid="{97C8D34B-E831-4AB2-B3D5-BBDD2F70C2D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Mineiro" sheetId="2" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6058" uniqueCount="3014">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6062" uniqueCount="3018">
   <si>
     <t>Ano</t>
   </si>
@@ -9093,6 +9093,18 @@
   </si>
   <si>
     <t>Romero;</t>
+  </si>
+  <si>
+    <t>Lucas Silva;Arthur Gomes;Rafael Elias</t>
+  </si>
+  <si>
+    <t>Matheus Pereira;Sem ass;Sem ass</t>
+  </si>
+  <si>
+    <t>Romero;Zé Ivaldo;Matheus Pereira</t>
+  </si>
+  <si>
+    <t>Arthur Gomes;Matheus Pereira;Arthur Gomes</t>
   </si>
 </sst>
 </file>
@@ -9173,13 +9185,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9195,6 +9206,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9517,7 +9532,7 @@
   <sheetPr codeName="Planilha2"/>
   <dimension ref="A1:G1508"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -36067,8 +36082,8 @@
   <sheetPr codeName="Planilha5"/>
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36113,8 +36128,12 @@
       <c r="D2" s="1" t="s">
         <v>1273</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>3014</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3015</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -36129,8 +36148,12 @@
       <c r="D3" s="1" t="s">
         <v>1274</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>3016</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>3017</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -36665,22 +36688,22 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
+      <c r="A33" s="1">
         <v>2025</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="1">
         <v>3</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="1" t="s">
         <v>1256</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="1" t="s">
         <v>2993</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="1" t="s">
         <v>2994</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="1" t="s">
         <v>2995</v>
       </c>
     </row>

--- a/Cruzeiro Mineiro.xlsx
+++ b/Cruzeiro Mineiro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7d1f36477029f8e0/Área de Trabalho/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="404" documentId="8_{29F0D014-0EEE-421E-9734-BCE3A86F6460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EAEE378F-BE2C-45EA-AFEC-94067B155191}"/>
+  <xr:revisionPtr revIDLastSave="900" documentId="8_{29F0D014-0EEE-421E-9734-BCE3A86F6460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C71C012-C654-415B-A1D9-57CC799BF9F4}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="5" xr2:uid="{97C8D34B-E831-4AB2-B3D5-BBDD2F70C2D4}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6584" uniqueCount="3182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7223" uniqueCount="3400">
   <si>
     <t>Ano</t>
   </si>
@@ -9597,6 +9597,660 @@
   </si>
   <si>
     <t>Sem ass;Everton Ribeiro;Sem ass;Elber Pimentel;Penalti</t>
+  </si>
+  <si>
+    <t>Athletico 2x3 Cruzeiro</t>
+  </si>
+  <si>
+    <t>Cruzeiro 3x2 Coritiba</t>
+  </si>
+  <si>
+    <t>Internacional 1x3 Cruzeiro</t>
+  </si>
+  <si>
+    <t>Cruzeiro 3x0 Flamengo</t>
+  </si>
+  <si>
+    <t>Cruzeiro 5x0 Figueirense</t>
+  </si>
+  <si>
+    <t>Botafogo1x1 Cruzeiro</t>
+  </si>
+  <si>
+    <t>Criciuma 0x0 Cruzeiro</t>
+  </si>
+  <si>
+    <t>Cruzeiro 4x2 Chapecoense</t>
+  </si>
+  <si>
+    <t>Fluminense 3x3 Cruzeiro</t>
+  </si>
+  <si>
+    <t>Coritiba 1x2 Cruzeiro</t>
+  </si>
+  <si>
+    <t>Sport 0x0 Cruzeiro</t>
+  </si>
+  <si>
+    <t>Figueirense 1x1 Cruzeiro</t>
+  </si>
+  <si>
+    <t>Cruzeiro 2x1 Botafogo</t>
+  </si>
+  <si>
+    <t>Cruzeiro 3x1 Criciuma</t>
+  </si>
+  <si>
+    <t>Gremio 1x2 Cruzeiro</t>
+  </si>
+  <si>
+    <t>Cruzeiro 2x1 Goias</t>
+  </si>
+  <si>
+    <t>Cruzeiro 2x1 Fluminense</t>
+  </si>
+  <si>
+    <t>Nilton;Marcelo Moreno</t>
+  </si>
+  <si>
+    <t>Marlone;Sem ass</t>
+  </si>
+  <si>
+    <t>Julio Baptista</t>
+  </si>
+  <si>
+    <t>Nilton;Souza;Marcelo Moreno</t>
+  </si>
+  <si>
+    <t>Egidio;Penalti;Souza</t>
+  </si>
+  <si>
+    <t>Ricardo Goulart;Ricardo Goulart;Borges</t>
+  </si>
+  <si>
+    <t>Egidio;Everton Ribeiro;Willian Bigode</t>
+  </si>
+  <si>
+    <t>Ricardo Goulart;Marcelo Moreno</t>
+  </si>
+  <si>
+    <t>Dagoberto;Willian Bigode</t>
+  </si>
+  <si>
+    <t>Ricardo Goulart;Willian Bigode;Marcelo Moreno</t>
+  </si>
+  <si>
+    <t>Sem ass;Everton Ribeiro;Sem ass;</t>
+  </si>
+  <si>
+    <t>Ricardo Goulart;Everton Ribeiro;Borges</t>
+  </si>
+  <si>
+    <t>Everton Ribeiro;Henrique;Sem ass</t>
+  </si>
+  <si>
+    <t>Gol contra;Ricardo Goulart;Everton Ribeiro</t>
+  </si>
+  <si>
+    <t>Sem ass;Egidio;Ricardo Goulart</t>
+  </si>
+  <si>
+    <t>Ricardo Goulart;Manoel</t>
+  </si>
+  <si>
+    <t>Marquinhos;Marquinhos</t>
+  </si>
+  <si>
+    <t>Lucas Silva;Marquinhos;Dedé;Ricardo Goulart;Dagoberto</t>
+  </si>
+  <si>
+    <t>Penalti;Marcelo Moreno;Everton Ribeiro;Everton Ribeiro;Mayke</t>
+  </si>
+  <si>
+    <t>Marcelo Moreno;Ricardo Goulart;Julio Baptista</t>
+  </si>
+  <si>
+    <t>Everton Ribeiro;Willian Bigode;Everton Ribeiro</t>
+  </si>
+  <si>
+    <t>Léo;Marcelo Moreno;Marcelo Moreno;Alisson</t>
+  </si>
+  <si>
+    <t>Alisson;Mayke;Sem ass;Sem ass</t>
+  </si>
+  <si>
+    <t>Julio Baptista;Julio Baptista;Marcelo Moreno</t>
+  </si>
+  <si>
+    <t>Penalti;Sem ass;Sem ass</t>
+  </si>
+  <si>
+    <t>Everton Ribeiro;Ricardo Goulart;</t>
+  </si>
+  <si>
+    <t>Penalti;Marcelo Moreno;</t>
+  </si>
+  <si>
+    <t>Alisson;Marcelo Moreno</t>
+  </si>
+  <si>
+    <t>Sem ass;Lucas Silva</t>
+  </si>
+  <si>
+    <t>Ricardo Goulart;Alisson</t>
+  </si>
+  <si>
+    <t>Everton Ribeiro;Marcelo Moreno</t>
+  </si>
+  <si>
+    <t>Marcelo Moreno;Everton Ribeiro</t>
+  </si>
+  <si>
+    <t>Marcelo Moreno;Marquinhos</t>
+  </si>
+  <si>
+    <t>Ceará;</t>
+  </si>
+  <si>
+    <t>Marquinhos;Egidio</t>
+  </si>
+  <si>
+    <t>Sem ass;Falta</t>
+  </si>
+  <si>
+    <t>Marcelo Moreno;Ricardo Goulart;Willian Bigode</t>
+  </si>
+  <si>
+    <t>Sem ass;Bruno Rodrigo;Ricardo Goulart</t>
+  </si>
+  <si>
+    <t>Willian Bigode</t>
+  </si>
+  <si>
+    <t>Ricardo Goulart;Everton Ribeiro;</t>
+  </si>
+  <si>
+    <t>Sem ass;Mayke</t>
+  </si>
+  <si>
+    <t>Ricardo Goulart;Everton Ribeiro</t>
+  </si>
+  <si>
+    <t>Mayke;Willian Bigode</t>
+  </si>
+  <si>
+    <t>Hugo Ragelli</t>
+  </si>
+  <si>
+    <t>Judivan</t>
+  </si>
+  <si>
+    <t>Everton Ribeiro;Mayke</t>
+  </si>
+  <si>
+    <t>Atlético Mineiro 1x0 Cruzeiro</t>
+  </si>
+  <si>
+    <t>Ceará 0x1 Cruzeiro</t>
+  </si>
+  <si>
+    <t>Chapecoense 2x0 Cruzeiro</t>
+  </si>
+  <si>
+    <t>Cruzeiro 3x1 América Mineiro</t>
+  </si>
+  <si>
+    <t>Cruzeiro 3x0 Chapecoense</t>
+  </si>
+  <si>
+    <t>Cruzeiro 0x2 Ceará</t>
+  </si>
+  <si>
+    <t>Athletico 2x0 Cruzeiro</t>
+  </si>
+  <si>
+    <t>Dedé;Arrascaeta</t>
+  </si>
+  <si>
+    <t>Arrascaeta;Sem ass</t>
+  </si>
+  <si>
+    <t>Bruno Silva</t>
+  </si>
+  <si>
+    <t>Arrascaeta;Robinho;Raniel</t>
+  </si>
+  <si>
+    <t>Sem ass;Arrascaeta;Sem ass</t>
+  </si>
+  <si>
+    <t>Arrascaeta;Barcos</t>
+  </si>
+  <si>
+    <t>Robinho;Robinho</t>
+  </si>
+  <si>
+    <t>Raniel;Gol contra</t>
+  </si>
+  <si>
+    <t>Arrascaeta;Gol contra</t>
+  </si>
+  <si>
+    <t>Sassá;Raniel</t>
+  </si>
+  <si>
+    <t>Edilson;David</t>
+  </si>
+  <si>
+    <t>Thiago Neves;Arrascaeta;Dedé</t>
+  </si>
+  <si>
+    <t>Cabral;Sem ass;Arrascaeta</t>
+  </si>
+  <si>
+    <t>Arrascaeta;Fred;Rafael Sobis</t>
+  </si>
+  <si>
+    <t>Sem ass;Mancuello;Penalti</t>
+  </si>
+  <si>
+    <t>Gol contra;Fred;Fred</t>
+  </si>
+  <si>
+    <t>Gol contra;Penalti;Patrick Brey</t>
+  </si>
+  <si>
+    <t>Cruzeiro 0x2 Chapecoense</t>
+  </si>
+  <si>
+    <t>Bahia 1x0 Cruzeiro</t>
+  </si>
+  <si>
+    <t>Cruzeiro 2x0 Atlético-GO</t>
+  </si>
+  <si>
+    <t>Cruzeiro 3x3 Gremio</t>
+  </si>
+  <si>
+    <t>Cruzeiro 2x0 Coritiba</t>
+  </si>
+  <si>
+    <t>Avai 1x0 Cruzeiro</t>
+  </si>
+  <si>
+    <t>Cruzeiro 0x0 Vitória</t>
+  </si>
+  <si>
+    <t>São Paulo 3x2 Cruzeiro</t>
+  </si>
+  <si>
+    <t>Chapecoense 1x2 Cruzeiro</t>
+  </si>
+  <si>
+    <t>Atlético-GO 1x2 Cruzeiro</t>
+  </si>
+  <si>
+    <t>Cruzeiro 2x1 Ponte Preta</t>
+  </si>
+  <si>
+    <t>Cruzeiro 1x3 Atlético Mineiro</t>
+  </si>
+  <si>
+    <t>Cruzeiro 3x1 Fluminense</t>
+  </si>
+  <si>
+    <t>Cruzeiro 0x1 Vasco</t>
+  </si>
+  <si>
+    <t>Thiago Neves;Arrascaeta;</t>
+  </si>
+  <si>
+    <t>Alisson;</t>
+  </si>
+  <si>
+    <t>Bryan Garcia</t>
+  </si>
+  <si>
+    <t>Thiago Neves;Judivan</t>
+  </si>
+  <si>
+    <t>Diogo Barbosa;Penalti</t>
+  </si>
+  <si>
+    <t>Romero;Diogo Barbosa;Thiago Neves</t>
+  </si>
+  <si>
+    <t>Thiago Neves;Thiago Neves;Robinho</t>
+  </si>
+  <si>
+    <t>Gol contra;Robinho</t>
+  </si>
+  <si>
+    <t>Gol contra;Arrascaeta</t>
+  </si>
+  <si>
+    <t>Thiago Neves;Manoel</t>
+  </si>
+  <si>
+    <t>Sem ass;Thiago Neves</t>
+  </si>
+  <si>
+    <t>Arrascaeta;Rafael Sobis</t>
+  </si>
+  <si>
+    <t>Sem ass;Nonoca</t>
+  </si>
+  <si>
+    <t>Rafinha;Raniel</t>
+  </si>
+  <si>
+    <t>Raniel;Sem ass</t>
+  </si>
+  <si>
+    <t>Ezequiel;Sem ass</t>
+  </si>
+  <si>
+    <t>Sassá;Sassá</t>
+  </si>
+  <si>
+    <t>Thiago Neves;Sassá;Robinho</t>
+  </si>
+  <si>
+    <t>Sem ass;Penalti;Lucas Silva</t>
+  </si>
+  <si>
+    <t>Romero;Rafael Marques</t>
+  </si>
+  <si>
+    <t>Alisson;Sem ass</t>
+  </si>
+  <si>
+    <t>Thiago Neves;Hudson;Elber Pimentel</t>
+  </si>
+  <si>
+    <t>Alisson;Romero;Sem ass</t>
+  </si>
+  <si>
+    <t>Thiago Neves;Rafael Sobis</t>
+  </si>
+  <si>
+    <t>Diogo Barbosa;Léo</t>
+  </si>
+  <si>
+    <t>Thiago Neves;Rafael Sobis;Robinho</t>
+  </si>
+  <si>
+    <t>Sem ass;Thiago Neves;Rafael Sobis</t>
+  </si>
+  <si>
+    <t>Abila;Abila</t>
+  </si>
+  <si>
+    <t>Alisson;Penalti</t>
+  </si>
+  <si>
+    <t>Botafogo 0x1 Cruzeiro</t>
+  </si>
+  <si>
+    <t>Atlético Mineiro 2x3 Cruzeiro</t>
+  </si>
+  <si>
+    <t>Ponte Preta 0x4 Cruzeiro</t>
+  </si>
+  <si>
+    <t>Chapecoense 3x2 Cruzeiro</t>
+  </si>
+  <si>
+    <t>Cruzeiro 2x2 Vitória</t>
+  </si>
+  <si>
+    <t>Cruzeiro 0x3 Athletico</t>
+  </si>
+  <si>
+    <t>Fluminense 2x0 Cruzeiro</t>
+  </si>
+  <si>
+    <t>Cruzeiro 1x2 Sport</t>
+  </si>
+  <si>
+    <t>Cruzeiro 2x0 Santa Cruz</t>
+  </si>
+  <si>
+    <t>América Mineiro 0x2 Cruzeiro</t>
+  </si>
+  <si>
+    <t>Cruzeiro 0x2 Botafogo</t>
+  </si>
+  <si>
+    <t>Cruzeiro 2x0 Ponte Preta</t>
+  </si>
+  <si>
+    <t>Palmeiras 0x0 Cruzeiro</t>
+  </si>
+  <si>
+    <t>Cruzeiro 0x0 Chapecoense</t>
+  </si>
+  <si>
+    <t>Cruzeiro 2x2 Santos</t>
+  </si>
+  <si>
+    <t>Cruzeiro 3x2 Corinthians</t>
+  </si>
+  <si>
+    <t>Elber Pimentel;Douglas Coutinho</t>
+  </si>
+  <si>
+    <t>Sem ass;Sanchez Mino</t>
+  </si>
+  <si>
+    <t>Elber Pimentel;</t>
+  </si>
+  <si>
+    <t>Alisson;Riascos;Bruno Rodrigo</t>
+  </si>
+  <si>
+    <t>Arrascaeta;Sem ass;Arrascaeta</t>
+  </si>
+  <si>
+    <t>Henrique;Arrascaeta;Arrascaeta;Alisson</t>
+  </si>
+  <si>
+    <t>Sem ass;Mayke;Penalti;Penalti</t>
+  </si>
+  <si>
+    <t>Arrascaeta;Alisson</t>
+  </si>
+  <si>
+    <t>Pisano;Fabricio Bruno</t>
+  </si>
+  <si>
+    <t>Sem ass;Romero</t>
+  </si>
+  <si>
+    <t>Alisson;Arrascaeta</t>
+  </si>
+  <si>
+    <t>Lucas Marques;Riascos</t>
+  </si>
+  <si>
+    <t>Rafael Sobis;Abila;Rafael Sobis;Rafael Sobis</t>
+  </si>
+  <si>
+    <t>Robinho;Arrascaeta;Robinho;Arrascaeta</t>
+  </si>
+  <si>
+    <t>Rafinha;Abila</t>
+  </si>
+  <si>
+    <t>Henrique;Abila</t>
+  </si>
+  <si>
+    <t>Robinho;Abila</t>
+  </si>
+  <si>
+    <t>Sem ass;Arrascaeta;</t>
+  </si>
+  <si>
+    <t>Arrascaeta;Abila</t>
+  </si>
+  <si>
+    <t>Sem ass;Alisson</t>
+  </si>
+  <si>
+    <t>Elber Pimentel</t>
+  </si>
+  <si>
+    <t>Rafinha;</t>
+  </si>
+  <si>
+    <t>Abila;Robinho</t>
+  </si>
+  <si>
+    <t>Sem ass;Rafinha</t>
+  </si>
+  <si>
+    <t>Rafael Sobis;Willian Bigode;Arrascaeta;Alisson</t>
+  </si>
+  <si>
+    <t>Willian Bigode;Alisson;Sem ass;Arrascaeta</t>
+  </si>
+  <si>
+    <t>Arrascaeta;Manoel</t>
+  </si>
+  <si>
+    <t>Sem ass;Bryan Garcia</t>
+  </si>
+  <si>
+    <t>Arrascaeta;Ezequiel;Robinho</t>
+  </si>
+  <si>
+    <t>Robinho;Robinho;Alisson</t>
+  </si>
+  <si>
+    <t>Cruzeiro 1x1 Ponte Preta</t>
+  </si>
+  <si>
+    <t>Cruzeiro 0x2  Chapecoense</t>
+  </si>
+  <si>
+    <t>Cruzeiro 1x0 Goias</t>
+  </si>
+  <si>
+    <t>Cruzeiro 1x1 Avai</t>
+  </si>
+  <si>
+    <t>Joinville 3x0 Cruzeiro</t>
+  </si>
+  <si>
+    <t>Corinthians 3x0 Cruzeiro</t>
+  </si>
+  <si>
+    <t>Ponte Preta 1x2 Cruzeiro</t>
+  </si>
+  <si>
+    <t>Cruzeiro 5x1 Figueirense</t>
+  </si>
+  <si>
+    <t>Chapecoense 0x2 Cruzeiro</t>
+  </si>
+  <si>
+    <t>Cruzeiro 0x0 Gremio</t>
+  </si>
+  <si>
+    <t>Avai 1x1 Cruzeiro</t>
+  </si>
+  <si>
+    <t>Cruzeiro 3x0 Sport</t>
+  </si>
+  <si>
+    <t>Cruzeiro 3x0 Joinville</t>
+  </si>
+  <si>
+    <t>Internacional 2x0 Cruzeiro</t>
+  </si>
+  <si>
+    <t>Charles</t>
+  </si>
+  <si>
+    <t>Fabricio dos Santos Silva</t>
+  </si>
+  <si>
+    <t>Gol contra;Gabriel Xavier;Marquinhos</t>
+  </si>
+  <si>
+    <t>Gol contra;Sem ass;Leandro Damião</t>
+  </si>
+  <si>
+    <t>Leandro Damião;Charles;Leandro Damião</t>
+  </si>
+  <si>
+    <t>Marquinhos;Willian Bigode;Sem ass</t>
+  </si>
+  <si>
+    <t>Arrascaeta;Marinho</t>
+  </si>
+  <si>
+    <t>Sem ass;Arrascaeta</t>
+  </si>
+  <si>
+    <t>Joel</t>
+  </si>
+  <si>
+    <t>Marcos Vinicius</t>
+  </si>
+  <si>
+    <t>Willians;Vinicius Araujo</t>
+  </si>
+  <si>
+    <t>Leandro Damião;Sem ass</t>
+  </si>
+  <si>
+    <t>Willian Bigode;Willian Bigode;Vinicius Araujo;Willian Bigode;William Bigode</t>
+  </si>
+  <si>
+    <t>Sem ass;Pará;Willians;Marquinhos;Marquinhos</t>
+  </si>
+  <si>
+    <t>Willian Bigode;Alisson</t>
+  </si>
+  <si>
+    <t>Willians;Gol contra</t>
+  </si>
+  <si>
+    <t>Fabiano;Gol contra</t>
+  </si>
+  <si>
+    <t>Ceará;Willian Bigode</t>
+  </si>
+  <si>
+    <t>Charles;Manoel</t>
+  </si>
+  <si>
+    <t>Fabricio dos Santos Silva;Arrascaeta</t>
+  </si>
+  <si>
+    <t>Manoel;Allano</t>
+  </si>
+  <si>
+    <t>Leandro Damião;</t>
+  </si>
+  <si>
+    <t>Willian Bigode;Leandro Damião</t>
+  </si>
+  <si>
+    <t>Sem ass;Cabral</t>
+  </si>
+  <si>
+    <t>Willians;Gol contra;Marcos Vinicius</t>
+  </si>
+  <si>
+    <t>Penalti;Sem ass;Willian Bigode</t>
+  </si>
+  <si>
+    <t>Willian Bigode;Charles;Alisson</t>
+  </si>
+  <si>
+    <t>Ceará;Marcos Vinicius;Willian Bigode</t>
   </si>
 </sst>
 </file>
@@ -37257,13 +37911,14 @@
   <sheetPr codeName="Planilha7"/>
   <dimension ref="A1:F1461"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A688" workbookViewId="0">
-      <selection activeCell="E706" sqref="E706"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F1014"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="78.42578125" bestFit="1" customWidth="1"/>
@@ -50582,7 +51237,7 @@
     </row>
     <row r="705" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A705" s="1">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="B705" s="1">
         <v>1</v>
@@ -50591,18 +51246,18 @@
         <v>821</v>
       </c>
       <c r="D705" s="1" t="s">
-        <v>1369</v>
+        <v>2676</v>
       </c>
       <c r="E705" s="1" t="s">
-        <v>393</v>
+        <v>3199</v>
       </c>
       <c r="F705" s="1" t="s">
-        <v>3036</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="706" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A706" s="1">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="B706" s="1">
         <v>2</v>
@@ -50611,16 +51266,18 @@
         <v>821</v>
       </c>
       <c r="D706" s="1" t="s">
-        <v>2833</v>
+        <v>1162</v>
       </c>
       <c r="E706" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="F706" s="1"/>
+        <v>3201</v>
+      </c>
+      <c r="F706" s="1" t="s">
+        <v>1188</v>
+      </c>
     </row>
     <row r="707" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A707" s="1">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="B707" s="1">
         <v>3</v>
@@ -50629,18 +51286,18 @@
         <v>821</v>
       </c>
       <c r="D707" s="1" t="s">
-        <v>200</v>
+        <v>3182</v>
       </c>
       <c r="E707" s="1" t="s">
-        <v>3037</v>
+        <v>3202</v>
       </c>
       <c r="F707" s="1" t="s">
-        <v>3038</v>
+        <v>3203</v>
       </c>
     </row>
     <row r="708" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A708" s="1">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="B708" s="1">
         <v>4</v>
@@ -50649,18 +51306,16 @@
         <v>821</v>
       </c>
       <c r="D708" s="1" t="s">
-        <v>1287</v>
+        <v>2110</v>
       </c>
       <c r="E708" s="1" t="s">
-        <v>3039</v>
-      </c>
-      <c r="F708" s="1" t="s">
-        <v>413</v>
-      </c>
+        <v>2954</v>
+      </c>
+      <c r="F708" s="1"/>
     </row>
     <row r="709" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A709" s="1">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="B709" s="1">
         <v>5</v>
@@ -50669,16 +51324,18 @@
         <v>821</v>
       </c>
       <c r="D709" s="1" t="s">
-        <v>3040</v>
+        <v>3183</v>
       </c>
       <c r="E709" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="F709" s="1"/>
+        <v>3204</v>
+      </c>
+      <c r="F709" s="1" t="s">
+        <v>3205</v>
+      </c>
     </row>
     <row r="710" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A710" s="1">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="B710" s="1">
         <v>6</v>
@@ -50687,18 +51344,18 @@
         <v>821</v>
       </c>
       <c r="D710" s="1" t="s">
-        <v>3041</v>
+        <v>1222</v>
       </c>
       <c r="E710" s="1" t="s">
-        <v>413</v>
+        <v>3206</v>
       </c>
       <c r="F710" s="1" t="s">
-        <v>774</v>
+        <v>3207</v>
       </c>
     </row>
     <row r="711" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A711" s="1">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="B711" s="1">
         <v>7</v>
@@ -50707,18 +51364,18 @@
         <v>821</v>
       </c>
       <c r="D711" s="1" t="s">
-        <v>672</v>
+        <v>3184</v>
       </c>
       <c r="E711" s="1" t="s">
-        <v>413</v>
+        <v>3208</v>
       </c>
       <c r="F711" s="1" t="s">
-        <v>1188</v>
+        <v>3209</v>
       </c>
     </row>
     <row r="712" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A712" s="1">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="B712" s="1">
         <v>8</v>
@@ -50727,14 +51384,14 @@
         <v>821</v>
       </c>
       <c r="D712" s="1" t="s">
-        <v>3042</v>
+        <v>927</v>
       </c>
       <c r="E712" s="1"/>
       <c r="F712" s="1"/>
     </row>
     <row r="713" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A713" s="1">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="B713" s="1">
         <v>9</v>
@@ -50743,18 +51400,18 @@
         <v>821</v>
       </c>
       <c r="D713" s="1" t="s">
-        <v>3043</v>
+        <v>3185</v>
       </c>
       <c r="E713" s="1" t="s">
-        <v>1244</v>
+        <v>3210</v>
       </c>
       <c r="F713" s="1" t="s">
-        <v>393</v>
+        <v>3211</v>
       </c>
     </row>
     <row r="714" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A714" s="1">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="B714" s="1">
         <v>10</v>
@@ -50763,14 +51420,18 @@
         <v>821</v>
       </c>
       <c r="D714" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="E714" s="1"/>
-      <c r="F714" s="1"/>
+        <v>1764</v>
+      </c>
+      <c r="E714" s="1" t="s">
+        <v>3212</v>
+      </c>
+      <c r="F714" s="1" t="s">
+        <v>3213</v>
+      </c>
     </row>
     <row r="715" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A715" s="1">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="B715" s="1">
         <v>11</v>
@@ -50779,14 +51440,18 @@
         <v>821</v>
       </c>
       <c r="D715" s="1" t="s">
-        <v>2849</v>
-      </c>
-      <c r="E715" s="1"/>
-      <c r="F715" s="1"/>
+        <v>459</v>
+      </c>
+      <c r="E715" s="1" t="s">
+        <v>3214</v>
+      </c>
+      <c r="F715" s="1" t="s">
+        <v>3215</v>
+      </c>
     </row>
     <row r="716" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A716" s="1">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="B716" s="1">
         <v>12</v>
@@ -50795,14 +51460,18 @@
         <v>821</v>
       </c>
       <c r="D716" s="1" t="s">
-        <v>1095</v>
-      </c>
-      <c r="E716" s="1"/>
-      <c r="F716" s="1"/>
+        <v>3186</v>
+      </c>
+      <c r="E716" s="1" t="s">
+        <v>3216</v>
+      </c>
+      <c r="F716" s="1" t="s">
+        <v>3217</v>
+      </c>
     </row>
     <row r="717" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A717" s="1">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="B717" s="1">
         <v>13</v>
@@ -50811,14 +51480,18 @@
         <v>821</v>
       </c>
       <c r="D717" s="1" t="s">
-        <v>925</v>
-      </c>
-      <c r="E717" s="1"/>
-      <c r="F717" s="1"/>
+        <v>3187</v>
+      </c>
+      <c r="E717" s="1" t="s">
+        <v>1513</v>
+      </c>
+      <c r="F717" s="1" t="s">
+        <v>3053</v>
+      </c>
     </row>
     <row r="718" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A718" s="1">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="B718" s="1">
         <v>14</v>
@@ -50827,18 +51500,14 @@
         <v>821</v>
       </c>
       <c r="D718" s="1" t="s">
-        <v>1105</v>
-      </c>
-      <c r="E718" s="1" t="s">
-        <v>3044</v>
-      </c>
-      <c r="F718" s="1" t="s">
-        <v>3045</v>
-      </c>
+        <v>3188</v>
+      </c>
+      <c r="E718" s="1"/>
+      <c r="F718" s="1"/>
     </row>
     <row r="719" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A719" s="1">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="B719" s="1">
         <v>15</v>
@@ -50847,18 +51516,18 @@
         <v>821</v>
       </c>
       <c r="D719" s="1" t="s">
-        <v>256</v>
+        <v>1419</v>
       </c>
       <c r="E719" s="1" t="s">
-        <v>3046</v>
+        <v>3218</v>
       </c>
       <c r="F719" s="1" t="s">
-        <v>3047</v>
+        <v>3219</v>
       </c>
     </row>
     <row r="720" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A720" s="1">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="B720" s="1">
         <v>16</v>
@@ -50867,18 +51536,18 @@
         <v>821</v>
       </c>
       <c r="D720" s="1" t="s">
-        <v>3048</v>
+        <v>411</v>
       </c>
       <c r="E720" s="1" t="s">
-        <v>657</v>
+        <v>1578</v>
       </c>
       <c r="F720" s="1" t="s">
-        <v>115</v>
+        <v>3053</v>
       </c>
     </row>
     <row r="721" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A721" s="1">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="B721" s="1">
         <v>17</v>
@@ -50887,18 +51556,18 @@
         <v>821</v>
       </c>
       <c r="D721" s="1" t="s">
-        <v>1159</v>
+        <v>2629</v>
       </c>
       <c r="E721" s="1" t="s">
-        <v>2952</v>
+        <v>2954</v>
       </c>
       <c r="F721" s="1" t="s">
-        <v>2233</v>
+        <v>3163</v>
       </c>
     </row>
     <row r="722" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A722" s="1">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="B722" s="1">
         <v>18</v>
@@ -50907,18 +51576,18 @@
         <v>821</v>
       </c>
       <c r="D722" s="1" t="s">
-        <v>3049</v>
+        <v>3189</v>
       </c>
       <c r="E722" s="1" t="s">
-        <v>1</v>
+        <v>3220</v>
       </c>
       <c r="F722" s="1" t="s">
-        <v>269</v>
+        <v>3221</v>
       </c>
     </row>
     <row r="723" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A723" s="1">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="B723" s="1">
         <v>19</v>
@@ -50927,14 +51596,18 @@
         <v>821</v>
       </c>
       <c r="D723" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="E723" s="1"/>
-      <c r="F723" s="1"/>
+        <v>3190</v>
+      </c>
+      <c r="E723" s="1" t="s">
+        <v>3222</v>
+      </c>
+      <c r="F723" s="1" t="s">
+        <v>3223</v>
+      </c>
     </row>
     <row r="724" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A724" s="1">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="B724" s="1">
         <v>20</v>
@@ -50943,18 +51616,18 @@
         <v>821</v>
       </c>
       <c r="D724" s="1" t="s">
-        <v>3050</v>
+        <v>873</v>
       </c>
       <c r="E724" s="1" t="s">
-        <v>413</v>
+        <v>3224</v>
       </c>
       <c r="F724" s="1" t="s">
-        <v>269</v>
+        <v>3225</v>
       </c>
     </row>
     <row r="725" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A725" s="1">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="B725" s="1">
         <v>21</v>
@@ -50963,14 +51636,14 @@
         <v>821</v>
       </c>
       <c r="D725" s="1" t="s">
-        <v>3051</v>
+        <v>517</v>
       </c>
       <c r="E725" s="1"/>
       <c r="F725" s="1"/>
     </row>
     <row r="726" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A726" s="1">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="B726" s="1">
         <v>22</v>
@@ -50979,14 +51652,18 @@
         <v>821</v>
       </c>
       <c r="D726" s="1" t="s">
-        <v>917</v>
-      </c>
-      <c r="E726" s="1"/>
-      <c r="F726" s="1"/>
+        <v>2575</v>
+      </c>
+      <c r="E726" s="1" t="s">
+        <v>3226</v>
+      </c>
+      <c r="F726" s="1" t="s">
+        <v>3227</v>
+      </c>
     </row>
     <row r="727" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A727" s="1">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="B727" s="1">
         <v>23</v>
@@ -50995,18 +51672,18 @@
         <v>821</v>
       </c>
       <c r="D727" s="1" t="s">
-        <v>1078</v>
+        <v>2409</v>
       </c>
       <c r="E727" s="1" t="s">
-        <v>657</v>
+        <v>3228</v>
       </c>
       <c r="F727" s="1" t="s">
-        <v>269</v>
+        <v>3229</v>
       </c>
     </row>
     <row r="728" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A728" s="1">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="B728" s="1">
         <v>24</v>
@@ -51015,14 +51692,18 @@
         <v>821</v>
       </c>
       <c r="D728" s="1" t="s">
-        <v>3052</v>
-      </c>
-      <c r="E728" s="1"/>
-      <c r="F728" s="1"/>
+        <v>3191</v>
+      </c>
+      <c r="E728" s="1" t="s">
+        <v>3230</v>
+      </c>
+      <c r="F728" s="1" t="s">
+        <v>2592</v>
+      </c>
     </row>
     <row r="729" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A729" s="1">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="B729" s="1">
         <v>25</v>
@@ -51031,18 +51712,14 @@
         <v>821</v>
       </c>
       <c r="D729" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="E729" s="1" t="s">
-        <v>3053</v>
-      </c>
-      <c r="F729" s="1" t="s">
-        <v>1</v>
-      </c>
+        <v>3192</v>
+      </c>
+      <c r="E729" s="1"/>
+      <c r="F729" s="1"/>
     </row>
     <row r="730" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A730" s="1">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="B730" s="1">
         <v>26</v>
@@ -51051,18 +51728,18 @@
         <v>821</v>
       </c>
       <c r="D730" s="1" t="s">
-        <v>1545</v>
+        <v>1053</v>
       </c>
       <c r="E730" s="1" t="s">
-        <v>413</v>
+        <v>3231</v>
       </c>
       <c r="F730" s="1" t="s">
-        <v>3036</v>
+        <v>3146</v>
       </c>
     </row>
     <row r="731" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A731" s="1">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="B731" s="1">
         <v>27</v>
@@ -51071,18 +51748,14 @@
         <v>821</v>
       </c>
       <c r="D731" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="E731" s="1" t="s">
-        <v>3054</v>
-      </c>
-      <c r="F731" s="1" t="s">
-        <v>2592</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="E731" s="1"/>
+      <c r="F731" s="1"/>
     </row>
     <row r="732" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A732" s="1">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="B732" s="1">
         <v>28</v>
@@ -51091,18 +51764,14 @@
         <v>821</v>
       </c>
       <c r="D732" s="1" t="s">
-        <v>3055</v>
-      </c>
-      <c r="E732" s="1" t="s">
-        <v>3056</v>
-      </c>
-      <c r="F732" s="1" t="s">
-        <v>3036</v>
-      </c>
+        <v>921</v>
+      </c>
+      <c r="E732" s="1"/>
+      <c r="F732" s="1"/>
     </row>
     <row r="733" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A733" s="1">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="B733" s="1">
         <v>29</v>
@@ -51111,18 +51780,18 @@
         <v>821</v>
       </c>
       <c r="D733" s="1" t="s">
-        <v>3057</v>
+        <v>2632</v>
       </c>
       <c r="E733" s="1" t="s">
-        <v>3058</v>
+        <v>3053</v>
       </c>
       <c r="F733" s="1" t="s">
-        <v>3059</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="734" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A734" s="1">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="B734" s="1">
         <v>30</v>
@@ -51131,18 +51800,18 @@
         <v>821</v>
       </c>
       <c r="D734" s="1" t="s">
-        <v>839</v>
+        <v>400</v>
       </c>
       <c r="E734" s="1" t="s">
-        <v>1244</v>
+        <v>1578</v>
       </c>
       <c r="F734" s="1" t="s">
-        <v>413</v>
+        <v>115</v>
       </c>
     </row>
     <row r="735" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A735" s="1">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="B735" s="1">
         <v>31</v>
@@ -51151,14 +51820,18 @@
         <v>821</v>
       </c>
       <c r="D735" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="E735" s="1"/>
-      <c r="F735" s="1"/>
+        <v>3193</v>
+      </c>
+      <c r="E735" s="1" t="s">
+        <v>1548</v>
+      </c>
+      <c r="F735" s="1" t="s">
+        <v>3232</v>
+      </c>
     </row>
     <row r="736" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A736" s="1">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="B736" s="1">
         <v>32</v>
@@ -51167,14 +51840,18 @@
         <v>821</v>
       </c>
       <c r="D736" s="1" t="s">
-        <v>1436</v>
-      </c>
-      <c r="E736" s="1"/>
-      <c r="F736" s="1"/>
+        <v>3194</v>
+      </c>
+      <c r="E736" s="1" t="s">
+        <v>3233</v>
+      </c>
+      <c r="F736" s="1" t="s">
+        <v>3234</v>
+      </c>
     </row>
     <row r="737" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A737" s="1">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="B737" s="1">
         <v>33</v>
@@ -51183,14 +51860,18 @@
         <v>821</v>
       </c>
       <c r="D737" s="1" t="s">
-        <v>3060</v>
-      </c>
-      <c r="E737" s="1"/>
-      <c r="F737" s="1"/>
+        <v>3195</v>
+      </c>
+      <c r="E737" s="1" t="s">
+        <v>3235</v>
+      </c>
+      <c r="F737" s="1" t="s">
+        <v>3236</v>
+      </c>
     </row>
     <row r="738" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A738" s="1">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="B738" s="1">
         <v>34</v>
@@ -51199,18 +51880,18 @@
         <v>821</v>
       </c>
       <c r="D738" s="1" t="s">
-        <v>1220</v>
+        <v>404</v>
       </c>
       <c r="E738" s="1" t="s">
-        <v>3056</v>
+        <v>3161</v>
       </c>
       <c r="F738" s="1" t="s">
-        <v>413</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="739" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A739" s="1">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="B739" s="1">
         <v>35</v>
@@ -51219,14 +51900,18 @@
         <v>821</v>
       </c>
       <c r="D739" s="1" t="s">
-        <v>3061</v>
-      </c>
-      <c r="E739" s="1"/>
-      <c r="F739" s="1"/>
+        <v>3196</v>
+      </c>
+      <c r="E739" s="1" t="s">
+        <v>3238</v>
+      </c>
+      <c r="F739" s="1" t="s">
+        <v>3239</v>
+      </c>
     </row>
     <row r="740" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A740" s="1">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="B740" s="1">
         <v>36</v>
@@ -51235,14 +51920,18 @@
         <v>821</v>
       </c>
       <c r="D740" s="1" t="s">
-        <v>1023</v>
-      </c>
-      <c r="E740" s="1"/>
-      <c r="F740" s="1"/>
+        <v>3197</v>
+      </c>
+      <c r="E740" s="1" t="s">
+        <v>3240</v>
+      </c>
+      <c r="F740" s="1" t="s">
+        <v>3241</v>
+      </c>
     </row>
     <row r="741" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A741" s="1">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="B741" s="1">
         <v>37</v>
@@ -51251,14 +51940,18 @@
         <v>821</v>
       </c>
       <c r="D741" s="1" t="s">
-        <v>2698</v>
-      </c>
-      <c r="E741" s="1"/>
-      <c r="F741" s="1"/>
+        <v>443</v>
+      </c>
+      <c r="E741" s="1" t="s">
+        <v>3242</v>
+      </c>
+      <c r="F741" s="1" t="s">
+        <v>3243</v>
+      </c>
     </row>
     <row r="742" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A742" s="1">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="B742" s="1">
         <v>38</v>
@@ -51267,14 +51960,18 @@
         <v>821</v>
       </c>
       <c r="D742" s="1" t="s">
-        <v>3062</v>
-      </c>
-      <c r="E742" s="1"/>
-      <c r="F742" s="1"/>
+        <v>3198</v>
+      </c>
+      <c r="E742" s="1" t="s">
+        <v>3199</v>
+      </c>
+      <c r="F742" s="1" t="s">
+        <v>3244</v>
+      </c>
     </row>
     <row r="743" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A743" s="1">
-        <v>2023</v>
+        <v>2015</v>
       </c>
       <c r="B743" s="1">
         <v>1</v>
@@ -51283,18 +51980,14 @@
         <v>821</v>
       </c>
       <c r="D743" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="E743" s="1" t="s">
-        <v>2297</v>
-      </c>
-      <c r="F743" s="1" t="s">
-        <v>1255</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="E743" s="1"/>
+      <c r="F743" s="1"/>
     </row>
     <row r="744" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A744" s="1">
-        <v>2023</v>
+        <v>2015</v>
       </c>
       <c r="B744" s="1">
         <v>2</v>
@@ -51303,18 +51996,14 @@
         <v>821</v>
       </c>
       <c r="D744" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="E744" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="F744" s="1" t="s">
-        <v>362</v>
-      </c>
+        <v>1277</v>
+      </c>
+      <c r="E744" s="1"/>
+      <c r="F744" s="1"/>
     </row>
     <row r="745" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A745" s="1">
-        <v>2023</v>
+        <v>2015</v>
       </c>
       <c r="B745" s="1">
         <v>3</v>
@@ -51323,18 +52012,18 @@
         <v>821</v>
       </c>
       <c r="D745" s="1" t="s">
-        <v>2808</v>
+        <v>3358</v>
       </c>
       <c r="E745" s="1" t="s">
-        <v>2809</v>
+        <v>3372</v>
       </c>
       <c r="F745" s="1" t="s">
-        <v>2810</v>
+        <v>3373</v>
       </c>
     </row>
     <row r="746" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A746" s="1">
-        <v>2023</v>
+        <v>2015</v>
       </c>
       <c r="B746" s="1">
         <v>4</v>
@@ -51343,18 +52032,18 @@
         <v>821</v>
       </c>
       <c r="D746" s="1" t="s">
-        <v>2682</v>
+        <v>1219</v>
       </c>
       <c r="E746" s="1" t="s">
-        <v>2811</v>
+        <v>1512</v>
       </c>
       <c r="F746" s="1" t="s">
-        <v>2812</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="747" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A747" s="1">
-        <v>2023</v>
+        <v>2015</v>
       </c>
       <c r="B747" s="1">
         <v>5</v>
@@ -51363,14 +52052,18 @@
         <v>821</v>
       </c>
       <c r="D747" s="1" t="s">
-        <v>2807</v>
-      </c>
-      <c r="E747" s="1"/>
-      <c r="F747" s="1"/>
+        <v>2610</v>
+      </c>
+      <c r="E747" s="1" t="s">
+        <v>2960</v>
+      </c>
+      <c r="F747" s="1" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="748" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A748" s="1">
-        <v>2023</v>
+        <v>2015</v>
       </c>
       <c r="B748" s="1">
         <v>6</v>
@@ -51379,18 +52072,18 @@
         <v>821</v>
       </c>
       <c r="D748" s="1" t="s">
-        <v>2806</v>
+        <v>1591</v>
       </c>
       <c r="E748" s="1" t="s">
-        <v>2813</v>
+        <v>3374</v>
       </c>
       <c r="F748" s="1" t="s">
-        <v>2814</v>
+        <v>3375</v>
       </c>
     </row>
     <row r="749" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A749" s="1">
-        <v>2023</v>
+        <v>2015</v>
       </c>
       <c r="B749" s="1">
         <v>7</v>
@@ -51399,14 +52092,18 @@
         <v>821</v>
       </c>
       <c r="D749" s="1" t="s">
-        <v>2805</v>
-      </c>
-      <c r="E749" s="1"/>
-      <c r="F749" s="1"/>
+        <v>1191</v>
+      </c>
+      <c r="E749" s="1" t="s">
+        <v>3376</v>
+      </c>
+      <c r="F749" s="1" t="s">
+        <v>3377</v>
+      </c>
     </row>
     <row r="750" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A750" s="1">
-        <v>2023</v>
+        <v>2015</v>
       </c>
       <c r="B750" s="1">
         <v>8</v>
@@ -51415,18 +52112,14 @@
         <v>821</v>
       </c>
       <c r="D750" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E750" s="1" t="s">
-        <v>1255</v>
-      </c>
-      <c r="F750" s="1" t="s">
-        <v>235</v>
-      </c>
+        <v>3359</v>
+      </c>
+      <c r="E750" s="1"/>
+      <c r="F750" s="1"/>
     </row>
     <row r="751" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A751" s="1">
-        <v>2023</v>
+        <v>2015</v>
       </c>
       <c r="B751" s="1">
         <v>9</v>
@@ -51435,14 +52128,14 @@
         <v>821</v>
       </c>
       <c r="D751" s="1" t="s">
-        <v>2141</v>
+        <v>2792</v>
       </c>
       <c r="E751" s="1"/>
       <c r="F751" s="1"/>
     </row>
     <row r="752" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A752" s="1">
-        <v>2023</v>
+        <v>2015</v>
       </c>
       <c r="B752" s="1">
         <v>10</v>
@@ -51451,18 +52144,14 @@
         <v>821</v>
       </c>
       <c r="D752" s="1" t="s">
-        <v>2804</v>
-      </c>
-      <c r="E752" s="1" t="s">
-        <v>2815</v>
-      </c>
-      <c r="F752" s="1" t="s">
-        <v>2816</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="E752" s="1"/>
+      <c r="F752" s="1"/>
     </row>
     <row r="753" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A753" s="1">
-        <v>2023</v>
+        <v>2015</v>
       </c>
       <c r="B753" s="1">
         <v>11</v>
@@ -51471,14 +52160,18 @@
         <v>821</v>
       </c>
       <c r="D753" s="1" t="s">
-        <v>2803</v>
-      </c>
-      <c r="E753" s="1"/>
-      <c r="F753" s="1"/>
+        <v>2575</v>
+      </c>
+      <c r="E753" s="1" t="s">
+        <v>3378</v>
+      </c>
+      <c r="F753" s="1" t="s">
+        <v>3379</v>
+      </c>
     </row>
     <row r="754" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A754" s="1">
-        <v>2023</v>
+        <v>2015</v>
       </c>
       <c r="B754" s="1">
         <v>12</v>
@@ -51487,18 +52180,14 @@
         <v>821</v>
       </c>
       <c r="D754" s="1" t="s">
-        <v>1545</v>
-      </c>
-      <c r="E754" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F754" s="1" t="s">
-        <v>85</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="E754" s="1"/>
+      <c r="F754" s="1"/>
     </row>
     <row r="755" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A755" s="1">
-        <v>2023</v>
+        <v>2015</v>
       </c>
       <c r="B755" s="1">
         <v>13</v>
@@ -51507,14 +52196,18 @@
         <v>821</v>
       </c>
       <c r="D755" s="1" t="s">
-        <v>2675</v>
-      </c>
-      <c r="E755" s="1"/>
-      <c r="F755" s="1"/>
+        <v>3360</v>
+      </c>
+      <c r="E755" s="1" t="s">
+        <v>3380</v>
+      </c>
+      <c r="F755" s="1" t="s">
+        <v>3083</v>
+      </c>
     </row>
     <row r="756" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A756" s="1">
-        <v>2023</v>
+        <v>2015</v>
       </c>
       <c r="B756" s="1">
         <v>14</v>
@@ -51523,18 +52216,18 @@
         <v>821</v>
       </c>
       <c r="D756" s="1" t="s">
-        <v>1412</v>
+        <v>3361</v>
       </c>
       <c r="E756" s="1" t="s">
-        <v>362</v>
+        <v>3381</v>
       </c>
       <c r="F756" s="1" t="s">
-        <v>1188</v>
+        <v>115</v>
       </c>
     </row>
     <row r="757" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A757" s="1">
-        <v>2023</v>
+        <v>2015</v>
       </c>
       <c r="B757" s="1">
         <v>15</v>
@@ -51543,14 +52236,14 @@
         <v>821</v>
       </c>
       <c r="D757" s="1" t="s">
-        <v>2680</v>
+        <v>1398</v>
       </c>
       <c r="E757" s="1"/>
       <c r="F757" s="1"/>
     </row>
     <row r="758" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A758" s="1">
-        <v>2023</v>
+        <v>2015</v>
       </c>
       <c r="B758" s="1">
         <v>16</v>
@@ -51559,14 +52252,14 @@
         <v>821</v>
       </c>
       <c r="D758" s="1" t="s">
-        <v>2802</v>
+        <v>3192</v>
       </c>
       <c r="E758" s="1"/>
       <c r="F758" s="1"/>
     </row>
     <row r="759" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A759" s="1">
-        <v>2023</v>
+        <v>2015</v>
       </c>
       <c r="B759" s="1">
         <v>17</v>
@@ -51575,18 +52268,18 @@
         <v>821</v>
       </c>
       <c r="D759" s="1" t="s">
-        <v>2801</v>
+        <v>683</v>
       </c>
       <c r="E759" s="1" t="s">
-        <v>2817</v>
+        <v>3338</v>
       </c>
       <c r="F759" s="1" t="s">
-        <v>2818</v>
+        <v>356</v>
       </c>
     </row>
     <row r="760" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A760" s="1">
-        <v>2023</v>
+        <v>2015</v>
       </c>
       <c r="B760" s="1">
         <v>18</v>
@@ -51595,14 +52288,14 @@
         <v>821</v>
       </c>
       <c r="D760" s="1" t="s">
-        <v>871</v>
+        <v>3362</v>
       </c>
       <c r="E760" s="1"/>
       <c r="F760" s="1"/>
     </row>
     <row r="761" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A761" s="1">
-        <v>2023</v>
+        <v>2015</v>
       </c>
       <c r="B761" s="1">
         <v>19</v>
@@ -51611,14 +52304,14 @@
         <v>821</v>
       </c>
       <c r="D761" s="1" t="s">
-        <v>685</v>
+        <v>2553</v>
       </c>
       <c r="E761" s="1"/>
       <c r="F761" s="1"/>
     </row>
     <row r="762" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A762" s="1">
-        <v>2023</v>
+        <v>2015</v>
       </c>
       <c r="B762" s="1">
         <v>20</v>
@@ -51627,18 +52320,14 @@
         <v>821</v>
       </c>
       <c r="D762" s="1" t="s">
-        <v>1302</v>
-      </c>
-      <c r="E762" s="1" t="s">
-        <v>2819</v>
-      </c>
-      <c r="F762" s="1" t="s">
-        <v>235</v>
-      </c>
+        <v>3363</v>
+      </c>
+      <c r="E762" s="1"/>
+      <c r="F762" s="1"/>
     </row>
     <row r="763" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A763" s="1">
-        <v>2023</v>
+        <v>2015</v>
       </c>
       <c r="B763" s="1">
         <v>21</v>
@@ -51647,14 +52336,14 @@
         <v>821</v>
       </c>
       <c r="D763" s="1" t="s">
-        <v>2800</v>
+        <v>1399</v>
       </c>
       <c r="E763" s="1"/>
       <c r="F763" s="1"/>
     </row>
     <row r="764" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A764" s="1">
-        <v>2023</v>
+        <v>2015</v>
       </c>
       <c r="B764" s="1">
         <v>22</v>
@@ -51663,14 +52352,18 @@
         <v>821</v>
       </c>
       <c r="D764" s="1" t="s">
-        <v>2799</v>
-      </c>
-      <c r="E764" s="1"/>
-      <c r="F764" s="1"/>
+        <v>3364</v>
+      </c>
+      <c r="E764" s="1" t="s">
+        <v>3382</v>
+      </c>
+      <c r="F764" s="1" t="s">
+        <v>3383</v>
+      </c>
     </row>
     <row r="765" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A765" s="1">
-        <v>2023</v>
+        <v>2015</v>
       </c>
       <c r="B765" s="1">
         <v>23</v>
@@ -51679,18 +52372,18 @@
         <v>821</v>
       </c>
       <c r="D765" s="1" t="s">
-        <v>2798</v>
+        <v>3365</v>
       </c>
       <c r="E765" s="1" t="s">
-        <v>2820</v>
+        <v>3384</v>
       </c>
       <c r="F765" s="1" t="s">
-        <v>2821</v>
+        <v>3385</v>
       </c>
     </row>
     <row r="766" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A766" s="1">
-        <v>2023</v>
+        <v>2015</v>
       </c>
       <c r="B766" s="1">
         <v>24</v>
@@ -51699,14 +52392,14 @@
         <v>821</v>
       </c>
       <c r="D766" s="1" t="s">
-        <v>152</v>
+        <v>2658</v>
       </c>
       <c r="E766" s="1"/>
       <c r="F766" s="1"/>
     </row>
     <row r="767" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A767" s="1">
-        <v>2023</v>
+        <v>2015</v>
       </c>
       <c r="B767" s="1">
         <v>25</v>
@@ -51715,18 +52408,18 @@
         <v>821</v>
       </c>
       <c r="D767" s="1" t="s">
-        <v>2797</v>
+        <v>1831</v>
       </c>
       <c r="E767" s="1" t="s">
-        <v>2822</v>
+        <v>3237</v>
       </c>
       <c r="F767" s="1" t="s">
-        <v>2789</v>
+        <v>415</v>
       </c>
     </row>
     <row r="768" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A768" s="1">
-        <v>2023</v>
+        <v>2015</v>
       </c>
       <c r="B768" s="1">
         <v>26</v>
@@ -51735,14 +52428,18 @@
         <v>821</v>
       </c>
       <c r="D768" s="1" t="s">
-        <v>2551</v>
-      </c>
-      <c r="E768" s="1"/>
-      <c r="F768" s="1"/>
+        <v>2790</v>
+      </c>
+      <c r="E768" s="1" t="s">
+        <v>3386</v>
+      </c>
+      <c r="F768" s="1" t="s">
+        <v>1470</v>
+      </c>
     </row>
     <row r="769" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A769" s="1">
-        <v>2023</v>
+        <v>2015</v>
       </c>
       <c r="B769" s="1">
         <v>27</v>
@@ -51751,14 +52448,18 @@
         <v>821</v>
       </c>
       <c r="D769" s="1" t="s">
-        <v>2796</v>
-      </c>
-      <c r="E769" s="1"/>
-      <c r="F769" s="1"/>
+        <v>3366</v>
+      </c>
+      <c r="E769" s="1" t="s">
+        <v>3388</v>
+      </c>
+      <c r="F769" s="1" t="s">
+        <v>3387</v>
+      </c>
     </row>
     <row r="770" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A770" s="1">
-        <v>2023</v>
+        <v>2015</v>
       </c>
       <c r="B770" s="1">
         <v>28</v>
@@ -51767,18 +52468,18 @@
         <v>821</v>
       </c>
       <c r="D770" s="1" t="s">
-        <v>2606</v>
+        <v>3273</v>
       </c>
       <c r="E770" s="1" t="s">
-        <v>85</v>
+        <v>3389</v>
       </c>
       <c r="F770" s="1" t="s">
-        <v>85</v>
+        <v>3390</v>
       </c>
     </row>
     <row r="771" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A771" s="1">
-        <v>2023</v>
+        <v>2015</v>
       </c>
       <c r="B771" s="1">
         <v>29</v>
@@ -51787,18 +52488,14 @@
         <v>821</v>
       </c>
       <c r="D771" s="1" t="s">
-        <v>2795</v>
-      </c>
-      <c r="E771" s="1" t="s">
-        <v>2823</v>
-      </c>
-      <c r="F771" s="1" t="s">
-        <v>2824</v>
-      </c>
+        <v>3367</v>
+      </c>
+      <c r="E771" s="1"/>
+      <c r="F771" s="1"/>
     </row>
     <row r="772" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A772" s="1">
-        <v>2023</v>
+        <v>2015</v>
       </c>
       <c r="B772" s="1">
         <v>30</v>
@@ -51807,14 +52504,18 @@
         <v>821</v>
       </c>
       <c r="D772" s="1" t="s">
-        <v>1398</v>
-      </c>
-      <c r="E772" s="1"/>
-      <c r="F772" s="1"/>
+        <v>251</v>
+      </c>
+      <c r="E772" s="1" t="s">
+        <v>3391</v>
+      </c>
+      <c r="F772" s="1" t="s">
+        <v>1470</v>
+      </c>
     </row>
     <row r="773" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A773" s="1">
-        <v>2023</v>
+        <v>2015</v>
       </c>
       <c r="B773" s="1">
         <v>31</v>
@@ -51823,18 +52524,18 @@
         <v>821</v>
       </c>
       <c r="D773" s="1" t="s">
-        <v>2794</v>
+        <v>2573</v>
       </c>
       <c r="E773" s="1" t="s">
-        <v>235</v>
+        <v>3151</v>
       </c>
       <c r="F773" s="1" t="s">
-        <v>269</v>
+        <v>3392</v>
       </c>
     </row>
     <row r="774" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A774" s="1">
-        <v>2023</v>
+        <v>2015</v>
       </c>
       <c r="B774" s="1">
         <v>32</v>
@@ -51843,14 +52544,18 @@
         <v>821</v>
       </c>
       <c r="D774" s="1" t="s">
-        <v>2792</v>
-      </c>
-      <c r="E774" s="1"/>
-      <c r="F774" s="1"/>
+        <v>2629</v>
+      </c>
+      <c r="E774" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F774" s="1" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="775" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A775" s="1">
-        <v>2023</v>
+        <v>2015</v>
       </c>
       <c r="B775" s="1">
         <v>33</v>
@@ -51859,18 +52564,18 @@
         <v>821</v>
       </c>
       <c r="D775" s="1" t="s">
-        <v>2791</v>
+        <v>3368</v>
       </c>
       <c r="E775" s="1" t="s">
-        <v>235</v>
+        <v>3393</v>
       </c>
       <c r="F775" s="1" t="s">
-        <v>2793</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="776" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A776" s="1">
-        <v>2023</v>
+        <v>2015</v>
       </c>
       <c r="B776" s="1">
         <v>34</v>
@@ -51879,18 +52584,18 @@
         <v>821</v>
       </c>
       <c r="D776" s="1" t="s">
-        <v>2790</v>
+        <v>263</v>
       </c>
       <c r="E776" s="1" t="s">
-        <v>2825</v>
+        <v>3394</v>
       </c>
       <c r="F776" s="1" t="s">
-        <v>2826</v>
+        <v>3395</v>
       </c>
     </row>
     <row r="777" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A777" s="1">
-        <v>2023</v>
+        <v>2015</v>
       </c>
       <c r="B777" s="1">
         <v>35</v>
@@ -51899,18 +52604,18 @@
         <v>821</v>
       </c>
       <c r="D777" s="1" t="s">
-        <v>2629</v>
+        <v>3369</v>
       </c>
       <c r="E777" s="1" t="s">
-        <v>2598</v>
+        <v>3396</v>
       </c>
       <c r="F777" s="1" t="s">
-        <v>235</v>
+        <v>3397</v>
       </c>
     </row>
     <row r="778" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A778" s="1">
-        <v>2023</v>
+        <v>2015</v>
       </c>
       <c r="B778" s="1">
         <v>36</v>
@@ -51919,18 +52624,18 @@
         <v>821</v>
       </c>
       <c r="D778" s="1" t="s">
-        <v>406</v>
+        <v>1018</v>
       </c>
       <c r="E778" s="1" t="s">
-        <v>1266</v>
+        <v>3381</v>
       </c>
       <c r="F778" s="1" t="s">
-        <v>2789</v>
+        <v>115</v>
       </c>
     </row>
     <row r="779" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A779" s="1">
-        <v>2023</v>
+        <v>2015</v>
       </c>
       <c r="B779" s="1">
         <v>37</v>
@@ -51939,14 +52644,18 @@
         <v>821</v>
       </c>
       <c r="D779" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="E779" s="1"/>
-      <c r="F779" s="1"/>
+        <v>3370</v>
+      </c>
+      <c r="E779" s="1" t="s">
+        <v>3398</v>
+      </c>
+      <c r="F779" s="1" t="s">
+        <v>3399</v>
+      </c>
     </row>
     <row r="780" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A780" s="1">
-        <v>2023</v>
+        <v>2015</v>
       </c>
       <c r="B780" s="1">
         <v>38</v>
@@ -51955,18 +52664,14 @@
         <v>821</v>
       </c>
       <c r="D780" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="E780" s="1" t="s">
-        <v>2789</v>
-      </c>
-      <c r="F780" s="1" t="s">
-        <v>1266</v>
-      </c>
+        <v>3371</v>
+      </c>
+      <c r="E780" s="1"/>
+      <c r="F780" s="1"/>
     </row>
     <row r="781" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A781" s="1">
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="B781" s="1">
         <v>1</v>
@@ -51975,18 +52680,14 @@
         <v>821</v>
       </c>
       <c r="D781" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="E781" s="1" t="s">
-        <v>2599</v>
-      </c>
-      <c r="F781" s="1" t="s">
-        <v>2600</v>
-      </c>
+        <v>2792</v>
+      </c>
+      <c r="E781" s="1"/>
+      <c r="F781" s="1"/>
     </row>
     <row r="782" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A782" s="1">
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="B782" s="1">
         <v>2</v>
@@ -51995,18 +52696,18 @@
         <v>821</v>
       </c>
       <c r="D782" s="1" t="s">
-        <v>2571</v>
+        <v>1048</v>
       </c>
       <c r="E782" s="1" t="s">
-        <v>2288</v>
+        <v>3328</v>
       </c>
       <c r="F782" s="1" t="s">
-        <v>2598</v>
+        <v>3329</v>
       </c>
     </row>
     <row r="783" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A783" s="1">
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="B783" s="1">
         <v>3</v>
@@ -52015,14 +52716,18 @@
         <v>821</v>
       </c>
       <c r="D783" s="1" t="s">
-        <v>2253</v>
-      </c>
-      <c r="E783" s="1"/>
-      <c r="F783" s="1"/>
+        <v>1061</v>
+      </c>
+      <c r="E783" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F783" s="1" t="s">
+        <v>1188</v>
+      </c>
     </row>
     <row r="784" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A784" s="1">
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="B784" s="1">
         <v>4</v>
@@ -52031,18 +52736,18 @@
         <v>821</v>
       </c>
       <c r="D784" s="1" t="s">
-        <v>1764</v>
+        <v>2797</v>
       </c>
       <c r="E784" s="1" t="s">
-        <v>2596</v>
+        <v>407</v>
       </c>
       <c r="F784" s="1" t="s">
-        <v>2597</v>
+        <v>774</v>
       </c>
     </row>
     <row r="785" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A785" s="1">
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="B785" s="1">
         <v>5</v>
@@ -52051,18 +52756,18 @@
         <v>821</v>
       </c>
       <c r="D785" s="1" t="s">
-        <v>293</v>
+        <v>3312</v>
       </c>
       <c r="E785" s="1" t="s">
-        <v>1266</v>
+        <v>3330</v>
       </c>
       <c r="F785" s="1" t="s">
-        <v>2595</v>
+        <v>774</v>
       </c>
     </row>
     <row r="786" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A786" s="1">
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="B786" s="1">
         <v>6</v>
@@ -52071,14 +52776,14 @@
         <v>821</v>
       </c>
       <c r="D786" s="1" t="s">
-        <v>517</v>
+        <v>2355</v>
       </c>
       <c r="E786" s="1"/>
       <c r="F786" s="1"/>
     </row>
     <row r="787" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A787" s="1">
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="B787" s="1">
         <v>7</v>
@@ -52087,18 +52792,18 @@
         <v>821</v>
       </c>
       <c r="D787" s="1" t="s">
-        <v>2572</v>
+        <v>3313</v>
       </c>
       <c r="E787" s="1" t="s">
-        <v>2593</v>
+        <v>3331</v>
       </c>
       <c r="F787" s="1" t="s">
-        <v>2594</v>
+        <v>3332</v>
       </c>
     </row>
     <row r="788" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A788" s="1">
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="B788" s="1">
         <v>8</v>
@@ -52107,14 +52812,14 @@
         <v>821</v>
       </c>
       <c r="D788" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E788" s="1"/>
       <c r="F788" s="1"/>
     </row>
     <row r="789" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A789" s="1">
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="B789" s="1">
         <v>9</v>
@@ -52123,18 +52828,14 @@
         <v>821</v>
       </c>
       <c r="D789" s="1" t="s">
-        <v>2573</v>
-      </c>
-      <c r="E789" s="1" t="s">
-        <v>2591</v>
-      </c>
-      <c r="F789" s="1" t="s">
-        <v>2592</v>
-      </c>
+        <v>2698</v>
+      </c>
+      <c r="E789" s="1"/>
+      <c r="F789" s="1"/>
     </row>
     <row r="790" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A790" s="1">
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="B790" s="1">
         <v>10</v>
@@ -52143,18 +52844,18 @@
         <v>821</v>
       </c>
       <c r="D790" s="1" t="s">
-        <v>2574</v>
+        <v>3314</v>
       </c>
       <c r="E790" s="1" t="s">
-        <v>2558</v>
+        <v>3333</v>
       </c>
       <c r="F790" s="1" t="s">
-        <v>236</v>
+        <v>3334</v>
       </c>
     </row>
     <row r="791" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A791" s="1">
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="B791" s="1">
         <v>11</v>
@@ -52163,18 +52864,18 @@
         <v>821</v>
       </c>
       <c r="D791" s="1" t="s">
-        <v>2575</v>
+        <v>683</v>
       </c>
       <c r="E791" s="1" t="s">
-        <v>2589</v>
+        <v>3151</v>
       </c>
       <c r="F791" s="1" t="s">
-        <v>2590</v>
+        <v>3335</v>
       </c>
     </row>
     <row r="792" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A792" s="1">
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="B792" s="1">
         <v>12</v>
@@ -52183,18 +52884,18 @@
         <v>821</v>
       </c>
       <c r="D792" s="1" t="s">
-        <v>2576</v>
+        <v>3315</v>
       </c>
       <c r="E792" s="1" t="s">
-        <v>1266</v>
+        <v>3336</v>
       </c>
       <c r="F792" s="1" t="s">
-        <v>2588</v>
+        <v>3337</v>
       </c>
     </row>
     <row r="793" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A793" s="1">
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="B793" s="1">
         <v>13</v>
@@ -52203,14 +52904,18 @@
         <v>821</v>
       </c>
       <c r="D793" s="1" t="s">
-        <v>2577</v>
-      </c>
-      <c r="E793" s="1"/>
-      <c r="F793" s="1"/>
+        <v>3316</v>
+      </c>
+      <c r="E793" s="1" t="s">
+        <v>3338</v>
+      </c>
+      <c r="F793" s="1" t="s">
+        <v>3339</v>
+      </c>
     </row>
     <row r="794" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A794" s="1">
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="B794" s="1">
         <v>14</v>
@@ -52219,18 +52924,14 @@
         <v>821</v>
       </c>
       <c r="D794" s="1" t="s">
-        <v>2578</v>
-      </c>
-      <c r="E794" s="1" t="s">
-        <v>2586</v>
-      </c>
-      <c r="F794" s="1" t="s">
-        <v>2587</v>
-      </c>
+        <v>3317</v>
+      </c>
+      <c r="E794" s="1"/>
+      <c r="F794" s="1"/>
     </row>
     <row r="795" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A795" s="1">
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="B795" s="1">
         <v>15</v>
@@ -52239,18 +52940,14 @@
         <v>821</v>
       </c>
       <c r="D795" s="1" t="s">
-        <v>1217</v>
-      </c>
-      <c r="E795" s="1" t="s">
-        <v>2584</v>
-      </c>
-      <c r="F795" s="1" t="s">
-        <v>2585</v>
-      </c>
+        <v>3318</v>
+      </c>
+      <c r="E795" s="1"/>
+      <c r="F795" s="1"/>
     </row>
     <row r="796" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A796" s="1">
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="B796" s="1">
         <v>16</v>
@@ -52259,18 +52956,18 @@
         <v>821</v>
       </c>
       <c r="D796" s="1" t="s">
-        <v>2579</v>
+        <v>3319</v>
       </c>
       <c r="E796" s="1" t="s">
-        <v>2582</v>
+        <v>3153</v>
       </c>
       <c r="F796" s="1" t="s">
-        <v>2583</v>
+        <v>407</v>
       </c>
     </row>
     <row r="797" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A797" s="1">
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="B797" s="1">
         <v>17</v>
@@ -52279,14 +52976,14 @@
         <v>821</v>
       </c>
       <c r="D797" s="1" t="s">
-        <v>315</v>
+        <v>1034</v>
       </c>
       <c r="E797" s="1"/>
       <c r="F797" s="1"/>
     </row>
     <row r="798" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A798" s="1">
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="B798" s="1">
         <v>18</v>
@@ -52295,16 +52992,18 @@
         <v>821</v>
       </c>
       <c r="D798" s="1" t="s">
-        <v>980</v>
+        <v>867</v>
       </c>
       <c r="E798" s="1" t="s">
-        <v>2581</v>
-      </c>
-      <c r="F798" s="1"/>
+        <v>3340</v>
+      </c>
+      <c r="F798" s="1" t="s">
+        <v>3341</v>
+      </c>
     </row>
     <row r="799" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A799" s="1">
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="B799" s="1">
         <v>19</v>
@@ -52313,14 +53012,18 @@
         <v>821</v>
       </c>
       <c r="D799" s="1" t="s">
-        <v>2580</v>
-      </c>
-      <c r="E799" s="1"/>
-      <c r="F799" s="1"/>
+        <v>457</v>
+      </c>
+      <c r="E799" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F799" s="1" t="s">
+        <v>734</v>
+      </c>
     </row>
     <row r="800" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A800" s="1">
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="B800" s="1">
         <v>20</v>
@@ -52329,18 +53032,18 @@
         <v>821</v>
       </c>
       <c r="D800" s="1" t="s">
-        <v>2555</v>
+        <v>949</v>
       </c>
       <c r="E800" s="1" t="s">
-        <v>2569</v>
+        <v>3342</v>
       </c>
       <c r="F800" s="1" t="s">
-        <v>2570</v>
+        <v>3253</v>
       </c>
     </row>
     <row r="801" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A801" s="1">
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="B801" s="1">
         <v>21</v>
@@ -52349,16 +53052,16 @@
         <v>821</v>
       </c>
       <c r="D801" s="1" t="s">
-        <v>2554</v>
+        <v>1389</v>
       </c>
       <c r="E801" s="1" t="s">
-        <v>1249</v>
+        <v>3343</v>
       </c>
       <c r="F801" s="1"/>
     </row>
     <row r="802" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A802" s="1">
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="B802" s="1">
         <v>22</v>
@@ -52367,14 +53070,18 @@
         <v>821</v>
       </c>
       <c r="D802" s="1" t="s">
-        <v>1436</v>
-      </c>
-      <c r="E802" s="1"/>
-      <c r="F802" s="1"/>
+        <v>3320</v>
+      </c>
+      <c r="E802" s="1" t="s">
+        <v>3344</v>
+      </c>
+      <c r="F802" s="1" t="s">
+        <v>3345</v>
+      </c>
     </row>
     <row r="803" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A803" s="1">
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="B803" s="1">
         <v>23</v>
@@ -52383,18 +53090,18 @@
         <v>821</v>
       </c>
       <c r="D803" s="1" t="s">
-        <v>841</v>
+        <v>3321</v>
       </c>
       <c r="E803" s="1" t="s">
-        <v>2567</v>
+        <v>3346</v>
       </c>
       <c r="F803" s="1" t="s">
-        <v>2568</v>
+        <v>3347</v>
       </c>
     </row>
     <row r="804" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A804" s="1">
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="B804" s="1">
         <v>24</v>
@@ -52403,14 +53110,14 @@
         <v>821</v>
       </c>
       <c r="D804" s="1" t="s">
-        <v>2553</v>
+        <v>3322</v>
       </c>
       <c r="E804" s="1"/>
       <c r="F804" s="1"/>
     </row>
     <row r="805" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A805" s="1">
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="B805" s="1">
         <v>25</v>
@@ -52419,18 +53126,14 @@
         <v>821</v>
       </c>
       <c r="D805" s="1" t="s">
-        <v>2552</v>
-      </c>
-      <c r="E805" s="1" t="s">
-        <v>2565</v>
-      </c>
-      <c r="F805" s="1" t="s">
-        <v>2566</v>
-      </c>
+        <v>1398</v>
+      </c>
+      <c r="E805" s="1"/>
+      <c r="F805" s="1"/>
     </row>
     <row r="806" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A806" s="1">
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="B806" s="1">
         <v>26</v>
@@ -52439,14 +53142,18 @@
         <v>821</v>
       </c>
       <c r="D806" s="1" t="s">
-        <v>2355</v>
-      </c>
-      <c r="E806" s="1"/>
-      <c r="F806" s="1"/>
+        <v>1831</v>
+      </c>
+      <c r="E806" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="F806" s="1" t="s">
+        <v>3348</v>
+      </c>
     </row>
     <row r="807" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A807" s="1">
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="B807" s="1">
         <v>27</v>
@@ -52455,14 +53162,18 @@
         <v>821</v>
       </c>
       <c r="D807" s="1" t="s">
-        <v>2551</v>
-      </c>
-      <c r="E807" s="1"/>
-      <c r="F807" s="1"/>
+        <v>2576</v>
+      </c>
+      <c r="E807" s="1" t="s">
+        <v>3349</v>
+      </c>
+      <c r="F807" s="1" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="808" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A808" s="1">
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="B808" s="1">
         <v>28</v>
@@ -52471,18 +53182,18 @@
         <v>821</v>
       </c>
       <c r="D808" s="1" t="s">
-        <v>467</v>
+        <v>411</v>
       </c>
       <c r="E808" s="1" t="s">
-        <v>2563</v>
+        <v>1512</v>
       </c>
       <c r="F808" s="1" t="s">
-        <v>2564</v>
+        <v>774</v>
       </c>
     </row>
     <row r="809" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A809" s="1">
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="B809" s="1">
         <v>29</v>
@@ -52491,14 +53202,18 @@
         <v>821</v>
       </c>
       <c r="D809" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E809" s="1"/>
-      <c r="F809" s="1"/>
+        <v>3323</v>
+      </c>
+      <c r="E809" s="1" t="s">
+        <v>3350</v>
+      </c>
+      <c r="F809" s="1" t="s">
+        <v>3351</v>
+      </c>
     </row>
     <row r="810" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A810" s="1">
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="B810" s="1">
         <v>30</v>
@@ -52507,18 +53222,14 @@
         <v>821</v>
       </c>
       <c r="D810" s="1" t="s">
-        <v>839</v>
-      </c>
-      <c r="E810" s="1" t="s">
-        <v>2558</v>
-      </c>
-      <c r="F810" s="1" t="s">
-        <v>1266</v>
-      </c>
+        <v>3324</v>
+      </c>
+      <c r="E810" s="1"/>
+      <c r="F810" s="1"/>
     </row>
     <row r="811" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A811" s="1">
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="B811" s="1">
         <v>31</v>
@@ -52527,14 +53238,14 @@
         <v>821</v>
       </c>
       <c r="D811" s="1" t="s">
-        <v>1766</v>
+        <v>3325</v>
       </c>
       <c r="E811" s="1"/>
       <c r="F811" s="1"/>
     </row>
     <row r="812" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A812" s="1">
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="B812" s="1">
         <v>32</v>
@@ -52543,14 +53254,18 @@
         <v>821</v>
       </c>
       <c r="D812" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="E812" s="1"/>
-      <c r="F812" s="1"/>
+        <v>2632</v>
+      </c>
+      <c r="E812" s="1" t="s">
+        <v>2219</v>
+      </c>
+      <c r="F812" s="1" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="813" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A813" s="1">
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="B813" s="1">
         <v>33</v>
@@ -52559,18 +53274,14 @@
         <v>821</v>
       </c>
       <c r="D813" s="1" t="s">
-        <v>2550</v>
-      </c>
-      <c r="E813" s="1" t="s">
-        <v>2561</v>
-      </c>
-      <c r="F813" s="1" t="s">
-        <v>2562</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="E813" s="1"/>
+      <c r="F813" s="1"/>
     </row>
     <row r="814" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A814" s="1">
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="B814" s="1">
         <v>34</v>
@@ -52579,18 +53290,18 @@
         <v>821</v>
       </c>
       <c r="D814" s="1" t="s">
-        <v>350</v>
+        <v>1224</v>
       </c>
       <c r="E814" s="1" t="s">
-        <v>2559</v>
+        <v>3352</v>
       </c>
       <c r="F814" s="1" t="s">
-        <v>2288</v>
+        <v>3353</v>
       </c>
     </row>
     <row r="815" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A815" s="1">
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="B815" s="1">
         <v>35</v>
@@ -52599,18 +53310,18 @@
         <v>821</v>
       </c>
       <c r="D815" s="1" t="s">
-        <v>1113</v>
+        <v>837</v>
       </c>
       <c r="E815" s="1" t="s">
-        <v>1266</v>
+        <v>1512</v>
       </c>
       <c r="F815" s="1" t="s">
-        <v>2558</v>
+        <v>115</v>
       </c>
     </row>
     <row r="816" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A816" s="1">
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="B816" s="1">
         <v>36</v>
@@ -52619,16 +53330,18 @@
         <v>821</v>
       </c>
       <c r="D816" s="1" t="s">
-        <v>2549</v>
+        <v>3326</v>
       </c>
       <c r="E816" s="1" t="s">
-        <v>2557</v>
-      </c>
-      <c r="F816" s="1"/>
+        <v>3354</v>
+      </c>
+      <c r="F816" s="1" t="s">
+        <v>3355</v>
+      </c>
     </row>
     <row r="817" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A817" s="1">
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="B817" s="1">
         <v>37</v>
@@ -52637,18 +53350,14 @@
         <v>821</v>
       </c>
       <c r="D817" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="E817" s="1" t="s">
-        <v>1266</v>
-      </c>
-      <c r="F817" s="1" t="s">
-        <v>1255</v>
-      </c>
+        <v>2580</v>
+      </c>
+      <c r="E817" s="1"/>
+      <c r="F817" s="1"/>
     </row>
     <row r="818" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A818" s="1">
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="B818" s="1">
         <v>38</v>
@@ -52657,18 +53366,18 @@
         <v>821</v>
       </c>
       <c r="D818" s="1" t="s">
-        <v>1308</v>
+        <v>3327</v>
       </c>
       <c r="E818" s="1" t="s">
-        <v>2556</v>
+        <v>3356</v>
       </c>
       <c r="F818" s="1" t="s">
-        <v>2560</v>
+        <v>3357</v>
       </c>
     </row>
     <row r="819" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A819" s="1">
-        <v>2025</v>
+        <v>2017</v>
       </c>
       <c r="B819" s="1">
         <v>1</v>
@@ -52677,18 +53386,18 @@
         <v>821</v>
       </c>
       <c r="D819" s="1" t="s">
-        <v>2918</v>
+        <v>1545</v>
       </c>
       <c r="E819" s="1" t="s">
-        <v>2919</v>
+        <v>351</v>
       </c>
       <c r="F819" s="1" t="s">
-        <v>2591</v>
+        <v>415</v>
       </c>
     </row>
     <row r="820" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A820" s="1">
-        <v>2025</v>
+        <v>2017</v>
       </c>
       <c r="B820" s="1">
         <v>2</v>
@@ -52697,14 +53406,18 @@
         <v>821</v>
       </c>
       <c r="D820" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="E820" s="1"/>
-      <c r="F820" s="1"/>
+        <v>2416</v>
+      </c>
+      <c r="E820" s="1" t="s">
+        <v>3284</v>
+      </c>
+      <c r="F820" s="1" t="s">
+        <v>3007</v>
+      </c>
     </row>
     <row r="821" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A821" s="1">
-        <v>2025</v>
+        <v>2017</v>
       </c>
       <c r="B821" s="1">
         <v>3</v>
@@ -52713,18 +53426,18 @@
         <v>821</v>
       </c>
       <c r="D821" s="1" t="s">
-        <v>672</v>
+        <v>404</v>
       </c>
       <c r="E821" s="1" t="s">
-        <v>2983</v>
+        <v>413</v>
       </c>
       <c r="F821" s="1" t="s">
-        <v>2559</v>
+        <v>750</v>
       </c>
     </row>
     <row r="822" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A822" s="1">
-        <v>2025</v>
+        <v>2017</v>
       </c>
       <c r="B822" s="1">
         <v>4</v>
@@ -52733,18 +53446,14 @@
         <v>821</v>
       </c>
       <c r="D822" s="1" t="s">
-        <v>2795</v>
-      </c>
-      <c r="E822" s="1" t="s">
-        <v>2984</v>
-      </c>
-      <c r="F822" s="1" t="s">
-        <v>2985</v>
-      </c>
+        <v>3269</v>
+      </c>
+      <c r="E822" s="1"/>
+      <c r="F822" s="1"/>
     </row>
     <row r="823" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A823" s="1">
-        <v>2025</v>
+        <v>2017</v>
       </c>
       <c r="B823" s="1">
         <v>5</v>
@@ -52753,1538 +53462,3526 @@
         <v>821</v>
       </c>
       <c r="D823" s="1" t="s">
-        <v>2986</v>
+        <v>3270</v>
       </c>
       <c r="E823" s="1"/>
       <c r="F823" s="1"/>
     </row>
     <row r="824" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A824" s="1"/>
-      <c r="B824" s="1"/>
-      <c r="C824" s="1"/>
-      <c r="D824" s="1"/>
-      <c r="E824" s="1"/>
-      <c r="F824" s="1"/>
+      <c r="A824" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B824" s="1">
+        <v>6</v>
+      </c>
+      <c r="C824" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D824" s="1" t="s">
+        <v>3271</v>
+      </c>
+      <c r="E824" s="1" t="s">
+        <v>3310</v>
+      </c>
+      <c r="F824" s="1" t="s">
+        <v>3311</v>
+      </c>
     </row>
     <row r="825" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A825" s="1"/>
-      <c r="B825" s="1"/>
-      <c r="C825" s="1"/>
-      <c r="D825" s="1"/>
+      <c r="A825" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B825" s="1">
+        <v>7</v>
+      </c>
+      <c r="C825" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D825" s="1" t="s">
+        <v>927</v>
+      </c>
       <c r="E825" s="1"/>
       <c r="F825" s="1"/>
     </row>
     <row r="826" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A826" s="1"/>
-      <c r="B826" s="1"/>
-      <c r="C826" s="1"/>
-      <c r="D826" s="1"/>
-      <c r="E826" s="1"/>
-      <c r="F826" s="1"/>
+      <c r="A826" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B826" s="1">
+        <v>8</v>
+      </c>
+      <c r="C826" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D826" s="1" t="s">
+        <v>3272</v>
+      </c>
+      <c r="E826" s="1" t="s">
+        <v>3308</v>
+      </c>
+      <c r="F826" s="1" t="s">
+        <v>3309</v>
+      </c>
     </row>
     <row r="827" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A827" s="1"/>
-      <c r="B827" s="1"/>
-      <c r="C827" s="1"/>
-      <c r="D827" s="1"/>
+      <c r="A827" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B827" s="1">
+        <v>9</v>
+      </c>
+      <c r="C827" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D827" s="1" t="s">
+        <v>923</v>
+      </c>
       <c r="E827" s="1"/>
       <c r="F827" s="1"/>
     </row>
     <row r="828" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A828" s="1"/>
-      <c r="B828" s="1"/>
-      <c r="C828" s="1"/>
-      <c r="D828" s="1"/>
-      <c r="E828" s="1"/>
-      <c r="F828" s="1"/>
+      <c r="A828" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B828" s="1">
+        <v>10</v>
+      </c>
+      <c r="C828" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D828" s="1" t="s">
+        <v>3273</v>
+      </c>
+      <c r="E828" s="1" t="s">
+        <v>3306</v>
+      </c>
+      <c r="F828" s="1" t="s">
+        <v>3307</v>
+      </c>
     </row>
     <row r="829" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A829" s="1"/>
-      <c r="B829" s="1"/>
-      <c r="C829" s="1"/>
-      <c r="D829" s="1"/>
-      <c r="E829" s="1"/>
-      <c r="F829" s="1"/>
+      <c r="A829" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B829" s="1">
+        <v>11</v>
+      </c>
+      <c r="C829" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D829" s="1" t="s">
+        <v>2175</v>
+      </c>
+      <c r="E829" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="F829" s="1" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="830" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A830" s="1"/>
-      <c r="B830" s="1"/>
-      <c r="C830" s="1"/>
-      <c r="D830" s="1"/>
-      <c r="E830" s="1"/>
-      <c r="F830" s="1"/>
+      <c r="A830" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B830" s="1">
+        <v>12</v>
+      </c>
+      <c r="C830" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D830" s="1" t="s">
+        <v>2453</v>
+      </c>
+      <c r="E830" s="1" t="s">
+        <v>3304</v>
+      </c>
+      <c r="F830" s="1" t="s">
+        <v>3305</v>
+      </c>
     </row>
     <row r="831" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A831" s="1"/>
-      <c r="B831" s="1"/>
-      <c r="C831" s="1"/>
-      <c r="D831" s="1"/>
-      <c r="E831" s="1"/>
-      <c r="F831" s="1"/>
+      <c r="A831" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B831" s="1">
+        <v>13</v>
+      </c>
+      <c r="C831" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D831" s="1" t="s">
+        <v>1818</v>
+      </c>
+      <c r="E831" s="1" t="s">
+        <v>3302</v>
+      </c>
+      <c r="F831" s="1" t="s">
+        <v>3303</v>
+      </c>
     </row>
     <row r="832" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A832" s="1"/>
-      <c r="B832" s="1"/>
-      <c r="C832" s="1"/>
-      <c r="D832" s="1"/>
-      <c r="E832" s="1"/>
-      <c r="F832" s="1"/>
+      <c r="A832" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B832" s="1">
+        <v>14</v>
+      </c>
+      <c r="C832" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D832" s="1" t="s">
+        <v>2448</v>
+      </c>
+      <c r="E832" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="F832" s="1" t="s">
+        <v>414</v>
+      </c>
     </row>
     <row r="833" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A833" s="1"/>
-      <c r="B833" s="1"/>
-      <c r="C833" s="1"/>
-      <c r="D833" s="1"/>
-      <c r="E833" s="1"/>
-      <c r="F833" s="1"/>
+      <c r="A833" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B833" s="1">
+        <v>15</v>
+      </c>
+      <c r="C833" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D833" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="E833" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="F833" s="1" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="834" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A834" s="1"/>
-      <c r="B834" s="1"/>
-      <c r="C834" s="1"/>
-      <c r="D834" s="1"/>
+      <c r="A834" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B834" s="1">
+        <v>16</v>
+      </c>
+      <c r="C834" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D834" s="1" t="s">
+        <v>3274</v>
+      </c>
       <c r="E834" s="1"/>
       <c r="F834" s="1"/>
     </row>
     <row r="835" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A835" s="1"/>
-      <c r="B835" s="1"/>
-      <c r="C835" s="1"/>
-      <c r="D835" s="1"/>
+      <c r="A835" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B835" s="1">
+        <v>17</v>
+      </c>
+      <c r="C835" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D835" s="1" t="s">
+        <v>3275</v>
+      </c>
       <c r="E835" s="1"/>
       <c r="F835" s="1"/>
     </row>
     <row r="836" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A836" s="1"/>
-      <c r="B836" s="1"/>
-      <c r="C836" s="1"/>
-      <c r="D836" s="1"/>
-      <c r="E836" s="1"/>
-      <c r="F836" s="1"/>
+      <c r="A836" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B836" s="1">
+        <v>18</v>
+      </c>
+      <c r="C836" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D836" s="1" t="s">
+        <v>2828</v>
+      </c>
+      <c r="E836" s="1" t="s">
+        <v>3300</v>
+      </c>
+      <c r="F836" s="1" t="s">
+        <v>3301</v>
+      </c>
     </row>
     <row r="837" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A837" s="1"/>
-      <c r="B837" s="1"/>
-      <c r="C837" s="1"/>
-      <c r="D837" s="1"/>
+      <c r="A837" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B837" s="1">
+        <v>19</v>
+      </c>
+      <c r="C837" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D837" s="1" t="s">
+        <v>871</v>
+      </c>
       <c r="E837" s="1"/>
       <c r="F837" s="1"/>
     </row>
     <row r="838" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A838" s="1"/>
-      <c r="B838" s="1"/>
-      <c r="C838" s="1"/>
-      <c r="D838" s="1"/>
-      <c r="E838" s="1"/>
-      <c r="F838" s="1"/>
+      <c r="A838" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B838" s="1">
+        <v>20</v>
+      </c>
+      <c r="C838" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D838" s="1" t="s">
+        <v>3276</v>
+      </c>
+      <c r="E838" s="1" t="s">
+        <v>3299</v>
+      </c>
+      <c r="F838" s="1" t="s">
+        <v>1470</v>
+      </c>
     </row>
     <row r="839" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A839" s="1"/>
-      <c r="B839" s="1"/>
-      <c r="C839" s="1"/>
-      <c r="D839" s="1"/>
-      <c r="E839" s="1"/>
-      <c r="F839" s="1"/>
+      <c r="A839" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B839" s="1">
+        <v>21</v>
+      </c>
+      <c r="C839" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D839" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E839" s="1" t="s">
+        <v>3261</v>
+      </c>
+      <c r="F839" s="1" t="s">
+        <v>3298</v>
+      </c>
     </row>
     <row r="840" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A840" s="1"/>
-      <c r="B840" s="1"/>
-      <c r="C840" s="1"/>
-      <c r="D840" s="1"/>
-      <c r="E840" s="1"/>
-      <c r="F840" s="1"/>
+      <c r="A840" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B840" s="1">
+        <v>22</v>
+      </c>
+      <c r="C840" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D840" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E840" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="F840" s="1" t="s">
+        <v>2560</v>
+      </c>
     </row>
     <row r="841" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A841" s="1"/>
-      <c r="B841" s="1"/>
-      <c r="C841" s="1"/>
-      <c r="D841" s="1"/>
-      <c r="E841" s="1"/>
-      <c r="F841" s="1"/>
+      <c r="A841" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B841" s="1">
+        <v>23</v>
+      </c>
+      <c r="C841" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D841" s="1" t="s">
+        <v>3277</v>
+      </c>
+      <c r="E841" s="1" t="s">
+        <v>3296</v>
+      </c>
+      <c r="F841" s="1" t="s">
+        <v>3297</v>
+      </c>
     </row>
     <row r="842" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A842" s="1"/>
-      <c r="B842" s="1"/>
-      <c r="C842" s="1"/>
-      <c r="D842" s="1"/>
-      <c r="E842" s="1"/>
-      <c r="F842" s="1"/>
+      <c r="A842" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B842" s="1">
+        <v>24</v>
+      </c>
+      <c r="C842" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D842" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E842" s="1" t="s">
+        <v>1513</v>
+      </c>
+      <c r="F842" s="1" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="843" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A843" s="1"/>
-      <c r="B843" s="1"/>
-      <c r="C843" s="1"/>
-      <c r="D843" s="1"/>
-      <c r="E843" s="1"/>
-      <c r="F843" s="1"/>
+      <c r="A843" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B843" s="1">
+        <v>25</v>
+      </c>
+      <c r="C843" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D843" s="1" t="s">
+        <v>3278</v>
+      </c>
+      <c r="E843" s="1" t="s">
+        <v>3294</v>
+      </c>
+      <c r="F843" s="1" t="s">
+        <v>3295</v>
+      </c>
     </row>
     <row r="844" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A844" s="1"/>
-      <c r="B844" s="1"/>
-      <c r="C844" s="1"/>
-      <c r="D844" s="1"/>
-      <c r="E844" s="1"/>
-      <c r="F844" s="1"/>
+      <c r="A844" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B844" s="1">
+        <v>26</v>
+      </c>
+      <c r="C844" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D844" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="E844" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="F844" s="1" t="s">
+        <v>747</v>
+      </c>
     </row>
     <row r="845" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A845" s="1"/>
-      <c r="B845" s="1"/>
-      <c r="C845" s="1"/>
-      <c r="D845" s="1"/>
-      <c r="E845" s="1"/>
-      <c r="F845" s="1"/>
+      <c r="A845" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B845" s="1">
+        <v>27</v>
+      </c>
+      <c r="C845" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D845" s="1" t="s">
+        <v>3279</v>
+      </c>
+      <c r="E845" s="1" t="s">
+        <v>3292</v>
+      </c>
+      <c r="F845" s="1" t="s">
+        <v>3293</v>
+      </c>
     </row>
     <row r="846" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A846" s="1"/>
-      <c r="B846" s="1"/>
-      <c r="C846" s="1"/>
-      <c r="D846" s="1"/>
-      <c r="E846" s="1"/>
-      <c r="F846" s="1"/>
+      <c r="A846" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B846" s="1">
+        <v>28</v>
+      </c>
+      <c r="C846" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D846" s="1" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E846" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="F846" s="1" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="847" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A847" s="1"/>
-      <c r="B847" s="1"/>
-      <c r="C847" s="1"/>
-      <c r="D847" s="1"/>
+      <c r="A847" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B847" s="1">
+        <v>29</v>
+      </c>
+      <c r="C847" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D847" s="1" t="s">
+        <v>2792</v>
+      </c>
       <c r="E847" s="1"/>
       <c r="F847" s="1"/>
     </row>
     <row r="848" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A848" s="1"/>
-      <c r="B848" s="1"/>
-      <c r="C848" s="1"/>
-      <c r="D848" s="1"/>
-      <c r="E848" s="1"/>
-      <c r="F848" s="1"/>
+      <c r="A848" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B848" s="1">
+        <v>30</v>
+      </c>
+      <c r="C848" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D848" s="1" t="s">
+        <v>3280</v>
+      </c>
+      <c r="E848" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="F848" s="1" t="s">
+        <v>774</v>
+      </c>
     </row>
     <row r="849" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A849" s="1"/>
-      <c r="B849" s="1"/>
-      <c r="C849" s="1"/>
-      <c r="D849" s="1"/>
-      <c r="E849" s="1"/>
-      <c r="F849" s="1"/>
+      <c r="A849" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B849" s="1">
+        <v>31</v>
+      </c>
+      <c r="C849" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D849" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="E849" s="1" t="s">
+        <v>3290</v>
+      </c>
+      <c r="F849" s="1" t="s">
+        <v>3291</v>
+      </c>
     </row>
     <row r="850" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A850" s="1"/>
-      <c r="B850" s="1"/>
-      <c r="C850" s="1"/>
-      <c r="D850" s="1"/>
-      <c r="E850" s="1"/>
-      <c r="F850" s="1"/>
+      <c r="A850" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B850" s="1">
+        <v>32</v>
+      </c>
+      <c r="C850" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D850" s="3" t="s">
+        <v>1165</v>
+      </c>
+      <c r="E850" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F850" s="1" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="851" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A851" s="1"/>
-      <c r="B851" s="1"/>
-      <c r="C851" s="1"/>
-      <c r="D851" s="1"/>
+      <c r="A851" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B851" s="1">
+        <v>33</v>
+      </c>
+      <c r="C851" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D851" s="1" t="s">
+        <v>2658</v>
+      </c>
       <c r="E851" s="1"/>
       <c r="F851" s="1"/>
     </row>
     <row r="852" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A852" s="1"/>
-      <c r="B852" s="1"/>
-      <c r="C852" s="1"/>
-      <c r="D852" s="1"/>
-      <c r="E852" s="1"/>
-      <c r="F852" s="1"/>
+      <c r="A852" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B852" s="1">
+        <v>34</v>
+      </c>
+      <c r="C852" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D852" s="1" t="s">
+        <v>3281</v>
+      </c>
+      <c r="E852" s="1" t="s">
+        <v>3288</v>
+      </c>
+      <c r="F852" s="1" t="s">
+        <v>3289</v>
+      </c>
     </row>
     <row r="853" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A853" s="1"/>
-      <c r="B853" s="1"/>
-      <c r="C853" s="1"/>
-      <c r="D853" s="1"/>
-      <c r="E853" s="1"/>
-      <c r="F853" s="1"/>
+      <c r="A853" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B853" s="1">
+        <v>35</v>
+      </c>
+      <c r="C853" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D853" s="1" t="s">
+        <v>2602</v>
+      </c>
+      <c r="E853" s="1" t="s">
+        <v>3286</v>
+      </c>
+      <c r="F853" s="1" t="s">
+        <v>3287</v>
+      </c>
     </row>
     <row r="854" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A854" s="1"/>
-      <c r="B854" s="1"/>
-      <c r="C854" s="1"/>
-      <c r="D854" s="1"/>
-      <c r="E854" s="1"/>
-      <c r="F854" s="1"/>
+      <c r="A854" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B854" s="1">
+        <v>36</v>
+      </c>
+      <c r="C854" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D854" s="1" t="s">
+        <v>2667</v>
+      </c>
+      <c r="E854" s="1" t="s">
+        <v>3284</v>
+      </c>
+      <c r="F854" s="1" t="s">
+        <v>3285</v>
+      </c>
     </row>
     <row r="855" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A855" s="1"/>
-      <c r="B855" s="1"/>
-      <c r="C855" s="1"/>
-      <c r="D855" s="1"/>
+      <c r="A855" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B855" s="1">
+        <v>37</v>
+      </c>
+      <c r="C855" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D855" s="1" t="s">
+        <v>3282</v>
+      </c>
       <c r="E855" s="1"/>
       <c r="F855" s="1"/>
     </row>
     <row r="856" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A856" s="1"/>
-      <c r="B856" s="1"/>
-      <c r="C856" s="1"/>
-      <c r="D856" s="1"/>
-      <c r="E856" s="1"/>
-      <c r="F856" s="1"/>
+      <c r="A856" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B856" s="1">
+        <v>38</v>
+      </c>
+      <c r="C856" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D856" s="1" t="s">
+        <v>2542</v>
+      </c>
+      <c r="E856" s="1" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F856" s="1" t="s">
+        <v>3253</v>
+      </c>
     </row>
     <row r="857" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A857" s="1"/>
-      <c r="B857" s="1"/>
-      <c r="C857" s="1"/>
-      <c r="D857" s="1"/>
+      <c r="A857" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B857" s="1">
+        <v>1</v>
+      </c>
+      <c r="C857" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D857" s="1" t="s">
+        <v>234</v>
+      </c>
       <c r="E857" s="1"/>
       <c r="F857" s="1"/>
     </row>
     <row r="858" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A858" s="1"/>
-      <c r="B858" s="1"/>
-      <c r="C858" s="1"/>
-      <c r="D858" s="1"/>
+      <c r="A858" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B858" s="1">
+        <v>2</v>
+      </c>
+      <c r="C858" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D858" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="E858" s="1"/>
       <c r="F858" s="1"/>
     </row>
     <row r="859" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A859" s="1"/>
-      <c r="B859" s="1"/>
-      <c r="C859" s="1"/>
-      <c r="D859" s="1"/>
+      <c r="A859" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B859" s="1">
+        <v>3</v>
+      </c>
+      <c r="C859" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D859" s="1" t="s">
+        <v>2675</v>
+      </c>
       <c r="E859" s="1"/>
       <c r="F859" s="1"/>
     </row>
     <row r="860" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A860" s="1"/>
-      <c r="B860" s="1"/>
-      <c r="C860" s="1"/>
-      <c r="D860" s="1"/>
-      <c r="E860" s="1"/>
-      <c r="F860" s="1"/>
+      <c r="A860" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B860" s="1">
+        <v>4</v>
+      </c>
+      <c r="C860" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D860" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="E860" s="1" t="s">
+        <v>3053</v>
+      </c>
+      <c r="F860" s="1" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="861" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A861" s="1"/>
-      <c r="B861" s="1"/>
-      <c r="C861" s="1"/>
-      <c r="D861" s="1"/>
-      <c r="E861" s="1"/>
-      <c r="F861" s="1"/>
+      <c r="A861" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B861" s="1">
+        <v>5</v>
+      </c>
+      <c r="C861" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D861" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E861" s="1" t="s">
+        <v>3252</v>
+      </c>
+      <c r="F861" s="1" t="s">
+        <v>3253</v>
+      </c>
     </row>
     <row r="862" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A862" s="1"/>
-      <c r="B862" s="1"/>
-      <c r="C862" s="1"/>
-      <c r="D862" s="1"/>
-      <c r="E862" s="1"/>
-      <c r="F862" s="1"/>
+      <c r="A862" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B862" s="1">
+        <v>6</v>
+      </c>
+      <c r="C862" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D862" s="1" t="s">
+        <v>3245</v>
+      </c>
+      <c r="E862" s="3"/>
+      <c r="F862" s="3"/>
     </row>
     <row r="863" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A863" s="1"/>
-      <c r="B863" s="1"/>
-      <c r="C863" s="1"/>
-      <c r="D863" s="1"/>
-      <c r="E863" s="1"/>
-      <c r="F863" s="1"/>
+      <c r="A863" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B863" s="1">
+        <v>7</v>
+      </c>
+      <c r="C863" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D863" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E863" s="1" t="s">
+        <v>3254</v>
+      </c>
+      <c r="F863" s="1" t="s">
+        <v>2213</v>
+      </c>
     </row>
     <row r="864" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A864" s="1"/>
-      <c r="B864" s="1"/>
-      <c r="C864" s="1"/>
-      <c r="D864" s="1"/>
-      <c r="E864" s="1"/>
+      <c r="A864" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B864" s="1">
+        <v>8</v>
+      </c>
+      <c r="C864" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D864" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="E864" s="1" t="s">
+        <v>734</v>
+      </c>
       <c r="F864" s="1"/>
     </row>
     <row r="865" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A865" s="1"/>
-      <c r="B865" s="1"/>
-      <c r="C865" s="1"/>
-      <c r="D865" s="1"/>
-      <c r="E865" s="1"/>
-      <c r="F865" s="1"/>
+      <c r="A865" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B865" s="1">
+        <v>9</v>
+      </c>
+      <c r="C865" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D865" s="1" t="s">
+        <v>3246</v>
+      </c>
+      <c r="E865" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="F865" s="1" t="s">
+        <v>3254</v>
+      </c>
     </row>
     <row r="866" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A866" s="1"/>
-      <c r="B866" s="1"/>
-      <c r="C866" s="1"/>
-      <c r="D866" s="1"/>
-      <c r="E866" s="1"/>
-      <c r="F866" s="1"/>
+      <c r="A866" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B866" s="1">
+        <v>10</v>
+      </c>
+      <c r="C866" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D866" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E866" s="1" t="s">
+        <v>2213</v>
+      </c>
+      <c r="F866" s="1" t="s">
+        <v>734</v>
+      </c>
     </row>
     <row r="867" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A867" s="1"/>
-      <c r="B867" s="1"/>
-      <c r="C867" s="1"/>
-      <c r="D867" s="1"/>
+      <c r="A867" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B867" s="1">
+        <v>11</v>
+      </c>
+      <c r="C867" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D867" s="1" t="s">
+        <v>3247</v>
+      </c>
       <c r="E867" s="1"/>
       <c r="F867" s="1"/>
     </row>
     <row r="868" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A868" s="1"/>
-      <c r="B868" s="1"/>
-      <c r="C868" s="1"/>
-      <c r="D868" s="1"/>
-      <c r="E868" s="1"/>
-      <c r="F868" s="1"/>
+      <c r="A868" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B868" s="1">
+        <v>12</v>
+      </c>
+      <c r="C868" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D868" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="E868" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="F868" s="1" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="869" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A869" s="1"/>
-      <c r="B869" s="1"/>
-      <c r="C869" s="1"/>
-      <c r="D869" s="1"/>
-      <c r="E869" s="1"/>
-      <c r="F869" s="1"/>
+      <c r="A869" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B869" s="1">
+        <v>13</v>
+      </c>
+      <c r="C869" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D869" s="1" t="s">
+        <v>3248</v>
+      </c>
+      <c r="E869" s="1" t="s">
+        <v>3255</v>
+      </c>
+      <c r="F869" s="1" t="s">
+        <v>3256</v>
+      </c>
     </row>
     <row r="870" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A870" s="1"/>
-      <c r="B870" s="1"/>
-      <c r="C870" s="1"/>
-      <c r="D870" s="1"/>
-      <c r="E870" s="1"/>
-      <c r="F870" s="1"/>
+      <c r="A870" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B870" s="1">
+        <v>14</v>
+      </c>
+      <c r="C870" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D870" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E870" s="1" t="s">
+        <v>3257</v>
+      </c>
+      <c r="F870" s="1" t="s">
+        <v>3258</v>
+      </c>
     </row>
     <row r="871" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A871" s="1"/>
-      <c r="B871" s="1"/>
-      <c r="C871" s="1"/>
-      <c r="D871" s="1"/>
+      <c r="A871" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B871" s="1">
+        <v>15</v>
+      </c>
+      <c r="C871" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D871" s="1" t="s">
+        <v>2458</v>
+      </c>
       <c r="E871" s="1"/>
       <c r="F871" s="1"/>
     </row>
     <row r="872" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A872" s="1"/>
-      <c r="B872" s="1"/>
-      <c r="C872" s="1"/>
-      <c r="D872" s="1"/>
+      <c r="A872" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B872" s="1">
+        <v>16</v>
+      </c>
+      <c r="C872" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D872" s="1" t="s">
+        <v>518</v>
+      </c>
       <c r="E872" s="1"/>
       <c r="F872" s="1"/>
     </row>
     <row r="873" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A873" s="1"/>
-      <c r="B873" s="1"/>
-      <c r="C873" s="1"/>
-      <c r="D873" s="1"/>
-      <c r="E873" s="1"/>
-      <c r="F873" s="1"/>
+      <c r="A873" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B873" s="1">
+        <v>17</v>
+      </c>
+      <c r="C873" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D873" s="1" t="s">
+        <v>2667</v>
+      </c>
+      <c r="E873" s="1" t="s">
+        <v>2960</v>
+      </c>
+      <c r="F873" s="1" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="874" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A874" s="1"/>
-      <c r="B874" s="1"/>
-      <c r="C874" s="1"/>
-      <c r="D874" s="1"/>
+      <c r="A874" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B874" s="1">
+        <v>18</v>
+      </c>
+      <c r="C874" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D874" s="1" t="s">
+        <v>297</v>
+      </c>
       <c r="E874" s="1"/>
       <c r="F874" s="1"/>
     </row>
     <row r="875" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A875" s="1"/>
-      <c r="B875" s="1"/>
-      <c r="C875" s="1"/>
-      <c r="D875" s="1"/>
-      <c r="E875" s="1"/>
-      <c r="F875" s="1"/>
+      <c r="A875" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B875" s="1">
+        <v>19</v>
+      </c>
+      <c r="C875" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D875" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="E875" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="F875" s="1" t="s">
+        <v>2234</v>
+      </c>
     </row>
     <row r="876" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A876" s="1"/>
-      <c r="B876" s="1"/>
-      <c r="C876" s="1"/>
-      <c r="D876" s="1"/>
-      <c r="E876" s="1"/>
-      <c r="F876" s="1"/>
+      <c r="A876" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B876" s="1">
+        <v>20</v>
+      </c>
+      <c r="C876" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D876" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E876" s="1" t="s">
+        <v>3254</v>
+      </c>
+      <c r="F876" s="1" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="877" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A877" s="1"/>
-      <c r="B877" s="1"/>
-      <c r="C877" s="1"/>
-      <c r="D877" s="1"/>
-      <c r="E877" s="1"/>
-      <c r="F877" s="1"/>
+      <c r="A877" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B877" s="1">
+        <v>21</v>
+      </c>
+      <c r="C877" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D877" s="1" t="s">
+        <v>3198</v>
+      </c>
+      <c r="E877" s="1" t="s">
+        <v>3259</v>
+      </c>
+      <c r="F877" s="1" t="s">
+        <v>3260</v>
+      </c>
     </row>
     <row r="878" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A878" s="1"/>
-      <c r="B878" s="1"/>
-      <c r="C878" s="1"/>
-      <c r="D878" s="1"/>
+      <c r="A878" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B878" s="1">
+        <v>22</v>
+      </c>
+      <c r="C878" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D878" s="1" t="s">
+        <v>2553</v>
+      </c>
       <c r="E878" s="1"/>
       <c r="F878" s="1"/>
     </row>
     <row r="879" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A879" s="1"/>
-      <c r="B879" s="1"/>
-      <c r="C879" s="1"/>
-      <c r="D879" s="1"/>
-      <c r="E879" s="1"/>
-      <c r="F879" s="1"/>
+      <c r="A879" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B879" s="1">
+        <v>23</v>
+      </c>
+      <c r="C879" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D879" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E879" s="1" t="s">
+        <v>2210</v>
+      </c>
+      <c r="F879" s="1" t="s">
+        <v>1188</v>
+      </c>
     </row>
     <row r="880" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A880" s="1"/>
-      <c r="B880" s="1"/>
-      <c r="C880" s="1"/>
-      <c r="D880" s="1"/>
+      <c r="A880" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B880" s="1">
+        <v>24</v>
+      </c>
+      <c r="C880" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D880" s="1" t="s">
+        <v>3192</v>
+      </c>
       <c r="E880" s="1"/>
       <c r="F880" s="1"/>
     </row>
     <row r="881" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A881" s="1"/>
-      <c r="B881" s="1"/>
-      <c r="C881" s="1"/>
-      <c r="D881" s="1"/>
+      <c r="A881" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B881" s="1">
+        <v>25</v>
+      </c>
+      <c r="C881" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D881" s="1" t="s">
+        <v>1436</v>
+      </c>
       <c r="E881" s="1"/>
       <c r="F881" s="1"/>
     </row>
     <row r="882" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A882" s="1"/>
-      <c r="B882" s="1"/>
-      <c r="C882" s="1"/>
-      <c r="D882" s="1"/>
-      <c r="E882" s="1"/>
-      <c r="F882" s="1"/>
+      <c r="A882" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B882" s="1">
+        <v>26</v>
+      </c>
+      <c r="C882" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D882" s="1" t="s">
+        <v>2682</v>
+      </c>
+      <c r="E882" s="1" t="s">
+        <v>3261</v>
+      </c>
+      <c r="F882" s="1" t="s">
+        <v>3262</v>
+      </c>
     </row>
     <row r="883" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A883" s="1"/>
-      <c r="B883" s="1"/>
-      <c r="C883" s="1"/>
-      <c r="D883" s="1"/>
-      <c r="E883" s="1"/>
-      <c r="F883" s="1"/>
+      <c r="A883" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B883" s="1">
+        <v>27</v>
+      </c>
+      <c r="C883" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D883" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="E883" s="1" t="s">
+        <v>2215</v>
+      </c>
+      <c r="F883" s="1" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="884" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A884" s="1"/>
-      <c r="B884" s="1"/>
-      <c r="C884" s="1"/>
-      <c r="D884" s="1"/>
+      <c r="A884" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B884" s="1">
+        <v>28</v>
+      </c>
+      <c r="C884" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D884" s="1" t="s">
+        <v>2447</v>
+      </c>
       <c r="E884" s="1"/>
       <c r="F884" s="1"/>
     </row>
     <row r="885" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A885" s="1"/>
-      <c r="B885" s="1"/>
-      <c r="C885" s="1"/>
-      <c r="D885" s="1"/>
-      <c r="E885" s="1"/>
-      <c r="F885" s="1"/>
+      <c r="A885" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B885" s="1">
+        <v>29</v>
+      </c>
+      <c r="C885" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D885" s="1" t="s">
+        <v>3249</v>
+      </c>
+      <c r="E885" s="1" t="s">
+        <v>3263</v>
+      </c>
+      <c r="F885" s="1" t="s">
+        <v>3264</v>
+      </c>
     </row>
     <row r="886" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A886" s="1"/>
-      <c r="B886" s="1"/>
-      <c r="C886" s="1"/>
-      <c r="D886" s="1"/>
+      <c r="A886" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B886" s="1">
+        <v>30</v>
+      </c>
+      <c r="C886" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D886" s="1" t="s">
+        <v>3250</v>
+      </c>
       <c r="E886" s="1"/>
       <c r="F886" s="1"/>
     </row>
     <row r="887" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A887" s="1"/>
-      <c r="B887" s="1"/>
-      <c r="C887" s="1"/>
-      <c r="D887" s="1"/>
-      <c r="E887" s="1"/>
-      <c r="F887" s="1"/>
+      <c r="A887" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B887" s="1">
+        <v>31</v>
+      </c>
+      <c r="C887" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D887" s="1" t="s">
+        <v>1883</v>
+      </c>
+      <c r="E887" s="1" t="s">
+        <v>3265</v>
+      </c>
+      <c r="F887" s="1" t="s">
+        <v>3266</v>
+      </c>
     </row>
     <row r="888" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A888" s="1"/>
-      <c r="B888" s="1"/>
-      <c r="C888" s="1"/>
-      <c r="D888" s="1"/>
-      <c r="E888" s="1"/>
-      <c r="F888" s="1"/>
+      <c r="A888" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B888" s="1">
+        <v>32</v>
+      </c>
+      <c r="C888" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D888" s="1" t="s">
+        <v>2940</v>
+      </c>
+      <c r="E888" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="F888" s="1" t="s">
+        <v>1208</v>
+      </c>
     </row>
     <row r="889" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A889" s="1"/>
-      <c r="B889" s="1"/>
-      <c r="C889" s="1"/>
-      <c r="D889" s="1"/>
+      <c r="A889" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B889" s="1">
+        <v>33</v>
+      </c>
+      <c r="C889" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D889" s="1" t="s">
+        <v>3251</v>
+      </c>
       <c r="E889" s="1"/>
       <c r="F889" s="1"/>
     </row>
     <row r="890" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A890" s="1"/>
-      <c r="B890" s="1"/>
-      <c r="C890" s="1"/>
-      <c r="D890" s="1"/>
-      <c r="E890" s="1"/>
-      <c r="F890" s="1"/>
+      <c r="A890" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B890" s="1">
+        <v>34</v>
+      </c>
+      <c r="C890" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D890" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E890" s="1" t="s">
+        <v>2233</v>
+      </c>
+      <c r="F890" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="891" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A891" s="1"/>
-      <c r="B891" s="1"/>
-      <c r="C891" s="1"/>
-      <c r="D891" s="1"/>
+      <c r="A891" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B891" s="1">
+        <v>35</v>
+      </c>
+      <c r="C891" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D891" s="1" t="s">
+        <v>1398</v>
+      </c>
       <c r="E891" s="1"/>
       <c r="F891" s="1"/>
     </row>
     <row r="892" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A892" s="1"/>
-      <c r="B892" s="1"/>
-      <c r="C892" s="1"/>
-      <c r="D892" s="1"/>
-      <c r="E892" s="1"/>
-      <c r="F892" s="1"/>
+      <c r="A892" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B892" s="1">
+        <v>36</v>
+      </c>
+      <c r="C892" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D892" s="1" t="s">
+        <v>2696</v>
+      </c>
+      <c r="E892" s="1" t="s">
+        <v>3267</v>
+      </c>
+      <c r="F892" s="1" t="s">
+        <v>3268</v>
+      </c>
     </row>
     <row r="893" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A893" s="1"/>
-      <c r="B893" s="1"/>
-      <c r="C893" s="1"/>
-      <c r="D893" s="1"/>
+      <c r="A893" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B893" s="1">
+        <v>37</v>
+      </c>
+      <c r="C893" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D893" s="1" t="s">
+        <v>2796</v>
+      </c>
       <c r="E893" s="1"/>
       <c r="F893" s="1"/>
     </row>
     <row r="894" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A894" s="1"/>
-      <c r="B894" s="1"/>
-      <c r="C894" s="1"/>
-      <c r="D894" s="1"/>
+      <c r="A894" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B894" s="1">
+        <v>38</v>
+      </c>
+      <c r="C894" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D894" s="1" t="s">
+        <v>2849</v>
+      </c>
       <c r="E894" s="1"/>
       <c r="F894" s="1"/>
     </row>
     <row r="895" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A895" s="1"/>
-      <c r="B895" s="1"/>
-      <c r="C895" s="1"/>
-      <c r="D895" s="1"/>
-      <c r="E895" s="1"/>
-      <c r="F895" s="1"/>
+      <c r="A895" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B895" s="1">
+        <v>1</v>
+      </c>
+      <c r="C895" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D895" s="1" t="s">
+        <v>1369</v>
+      </c>
+      <c r="E895" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="F895" s="1" t="s">
+        <v>3036</v>
+      </c>
     </row>
     <row r="896" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A896" s="1"/>
-      <c r="B896" s="1"/>
-      <c r="C896" s="1"/>
-      <c r="D896" s="1"/>
-      <c r="E896" s="1"/>
+      <c r="A896" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B896" s="1">
+        <v>2</v>
+      </c>
+      <c r="C896" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D896" s="1" t="s">
+        <v>2833</v>
+      </c>
+      <c r="E896" s="1" t="s">
+        <v>413</v>
+      </c>
       <c r="F896" s="1"/>
     </row>
     <row r="897" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A897" s="1"/>
-      <c r="B897" s="1"/>
-      <c r="C897" s="1"/>
-      <c r="D897" s="1"/>
-      <c r="E897" s="1"/>
-      <c r="F897" s="1"/>
+      <c r="A897" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B897" s="1">
+        <v>3</v>
+      </c>
+      <c r="C897" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D897" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E897" s="1" t="s">
+        <v>3037</v>
+      </c>
+      <c r="F897" s="1" t="s">
+        <v>3038</v>
+      </c>
     </row>
     <row r="898" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A898" s="1"/>
-      <c r="B898" s="1"/>
-      <c r="C898" s="1"/>
-      <c r="D898" s="1"/>
-      <c r="E898" s="1"/>
-      <c r="F898" s="1"/>
+      <c r="A898" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B898" s="1">
+        <v>4</v>
+      </c>
+      <c r="C898" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D898" s="1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="E898" s="1" t="s">
+        <v>3039</v>
+      </c>
+      <c r="F898" s="1" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="899" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A899" s="1"/>
-      <c r="B899" s="1"/>
-      <c r="C899" s="1"/>
-      <c r="D899" s="1"/>
-      <c r="E899" s="1"/>
+      <c r="A899" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B899" s="1">
+        <v>5</v>
+      </c>
+      <c r="C899" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D899" s="1" t="s">
+        <v>3040</v>
+      </c>
+      <c r="E899" s="1" t="s">
+        <v>340</v>
+      </c>
       <c r="F899" s="1"/>
     </row>
     <row r="900" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A900" s="1"/>
-      <c r="B900" s="1"/>
-      <c r="C900" s="1"/>
-      <c r="D900" s="1"/>
-      <c r="E900" s="1"/>
-      <c r="F900" s="1"/>
+      <c r="A900" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B900" s="1">
+        <v>6</v>
+      </c>
+      <c r="C900" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D900" s="1" t="s">
+        <v>3041</v>
+      </c>
+      <c r="E900" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="F900" s="1" t="s">
+        <v>774</v>
+      </c>
     </row>
     <row r="901" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A901" s="1"/>
-      <c r="B901" s="1"/>
-      <c r="C901" s="1"/>
-      <c r="D901" s="1"/>
-      <c r="E901" s="1"/>
-      <c r="F901" s="1"/>
+      <c r="A901" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B901" s="1">
+        <v>7</v>
+      </c>
+      <c r="C901" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D901" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="E901" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="F901" s="1" t="s">
+        <v>1188</v>
+      </c>
     </row>
     <row r="902" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A902" s="1"/>
-      <c r="B902" s="1"/>
-      <c r="C902" s="1"/>
-      <c r="D902" s="1"/>
+      <c r="A902" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B902" s="1">
+        <v>8</v>
+      </c>
+      <c r="C902" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D902" s="1" t="s">
+        <v>3042</v>
+      </c>
       <c r="E902" s="1"/>
       <c r="F902" s="1"/>
     </row>
     <row r="903" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A903" s="1"/>
-      <c r="B903" s="1"/>
-      <c r="C903" s="1"/>
-      <c r="D903" s="1"/>
-      <c r="E903" s="1"/>
-      <c r="F903" s="1"/>
+      <c r="A903" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B903" s="1">
+        <v>9</v>
+      </c>
+      <c r="C903" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D903" s="1" t="s">
+        <v>3043</v>
+      </c>
+      <c r="E903" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="F903" s="1" t="s">
+        <v>393</v>
+      </c>
     </row>
     <row r="904" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A904" s="1"/>
-      <c r="B904" s="1"/>
-      <c r="C904" s="1"/>
-      <c r="D904" s="1"/>
+      <c r="A904" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B904" s="1">
+        <v>10</v>
+      </c>
+      <c r="C904" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D904" s="1" t="s">
+        <v>871</v>
+      </c>
       <c r="E904" s="1"/>
       <c r="F904" s="1"/>
     </row>
     <row r="905" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A905" s="1"/>
-      <c r="B905" s="1"/>
-      <c r="C905" s="1"/>
-      <c r="D905" s="1"/>
+      <c r="A905" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B905" s="1">
+        <v>11</v>
+      </c>
+      <c r="C905" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D905" s="1" t="s">
+        <v>2849</v>
+      </c>
       <c r="E905" s="1"/>
       <c r="F905" s="1"/>
     </row>
     <row r="906" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A906" s="1"/>
-      <c r="B906" s="1"/>
-      <c r="C906" s="1"/>
-      <c r="D906" s="1"/>
+      <c r="A906" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B906" s="1">
+        <v>12</v>
+      </c>
+      <c r="C906" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D906" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="E906" s="1"/>
       <c r="F906" s="1"/>
     </row>
     <row r="907" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A907" s="1"/>
-      <c r="B907" s="1"/>
-      <c r="C907" s="1"/>
-      <c r="D907" s="1"/>
+      <c r="A907" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B907" s="1">
+        <v>13</v>
+      </c>
+      <c r="C907" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D907" s="1" t="s">
+        <v>925</v>
+      </c>
       <c r="E907" s="1"/>
       <c r="F907" s="1"/>
     </row>
     <row r="908" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A908" s="1"/>
-      <c r="B908" s="1"/>
-      <c r="C908" s="1"/>
-      <c r="D908" s="1"/>
-      <c r="E908" s="1"/>
-      <c r="F908" s="1"/>
+      <c r="A908" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B908" s="1">
+        <v>14</v>
+      </c>
+      <c r="C908" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D908" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E908" s="1" t="s">
+        <v>3044</v>
+      </c>
+      <c r="F908" s="1" t="s">
+        <v>3045</v>
+      </c>
     </row>
     <row r="909" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A909" s="1"/>
-      <c r="B909" s="1"/>
-      <c r="C909" s="1"/>
-      <c r="D909" s="1"/>
-      <c r="E909" s="1"/>
-      <c r="F909" s="1"/>
+      <c r="A909" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B909" s="1">
+        <v>15</v>
+      </c>
+      <c r="C909" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D909" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E909" s="1" t="s">
+        <v>3046</v>
+      </c>
+      <c r="F909" s="1" t="s">
+        <v>3047</v>
+      </c>
     </row>
     <row r="910" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A910" s="1"/>
-      <c r="B910" s="1"/>
-      <c r="C910" s="1"/>
-      <c r="D910" s="1"/>
-      <c r="E910" s="1"/>
-      <c r="F910" s="1"/>
+      <c r="A910" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B910" s="1">
+        <v>16</v>
+      </c>
+      <c r="C910" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D910" s="1" t="s">
+        <v>3048</v>
+      </c>
+      <c r="E910" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="F910" s="1" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="911" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A911" s="1"/>
-      <c r="B911" s="1"/>
-      <c r="C911" s="1"/>
-      <c r="D911" s="1"/>
-      <c r="E911" s="1"/>
-      <c r="F911" s="1"/>
+      <c r="A911" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B911" s="1">
+        <v>17</v>
+      </c>
+      <c r="C911" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D911" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E911" s="1" t="s">
+        <v>2952</v>
+      </c>
+      <c r="F911" s="1" t="s">
+        <v>2233</v>
+      </c>
     </row>
     <row r="912" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A912" s="1"/>
-      <c r="B912" s="1"/>
-      <c r="C912" s="1"/>
-      <c r="D912" s="1"/>
-      <c r="E912" s="1"/>
-      <c r="F912" s="1"/>
+      <c r="A912" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B912" s="1">
+        <v>18</v>
+      </c>
+      <c r="C912" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D912" s="1" t="s">
+        <v>3049</v>
+      </c>
+      <c r="E912" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F912" s="1" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="913" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A913" s="1"/>
-      <c r="B913" s="1"/>
-      <c r="C913" s="1"/>
-      <c r="D913" s="1"/>
+      <c r="A913" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B913" s="1">
+        <v>19</v>
+      </c>
+      <c r="C913" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D913" s="1" t="s">
+        <v>685</v>
+      </c>
       <c r="E913" s="1"/>
       <c r="F913" s="1"/>
     </row>
     <row r="914" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A914" s="1"/>
-      <c r="B914" s="1"/>
-      <c r="C914" s="1"/>
-      <c r="D914" s="1"/>
-      <c r="E914" s="1"/>
-      <c r="F914" s="1"/>
+      <c r="A914" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B914" s="1">
+        <v>20</v>
+      </c>
+      <c r="C914" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D914" s="1" t="s">
+        <v>3050</v>
+      </c>
+      <c r="E914" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="F914" s="1" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="915" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A915" s="1"/>
-      <c r="B915" s="1"/>
-      <c r="C915" s="1"/>
-      <c r="D915" s="1"/>
+      <c r="A915" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B915" s="1">
+        <v>21</v>
+      </c>
+      <c r="C915" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D915" s="1" t="s">
+        <v>3051</v>
+      </c>
       <c r="E915" s="1"/>
       <c r="F915" s="1"/>
     </row>
     <row r="916" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A916" s="1"/>
-      <c r="B916" s="1"/>
-      <c r="C916" s="1"/>
-      <c r="D916" s="1"/>
+      <c r="A916" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B916" s="1">
+        <v>22</v>
+      </c>
+      <c r="C916" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D916" s="1" t="s">
+        <v>917</v>
+      </c>
       <c r="E916" s="1"/>
       <c r="F916" s="1"/>
     </row>
     <row r="917" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A917" s="1"/>
-      <c r="B917" s="1"/>
-      <c r="C917" s="1"/>
-      <c r="D917" s="1"/>
-      <c r="E917" s="1"/>
-      <c r="F917" s="1"/>
+      <c r="A917" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B917" s="1">
+        <v>23</v>
+      </c>
+      <c r="C917" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D917" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E917" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="F917" s="1" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="918" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A918" s="1"/>
-      <c r="B918" s="1"/>
-      <c r="C918" s="1"/>
-      <c r="D918" s="1"/>
+      <c r="A918" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B918" s="1">
+        <v>24</v>
+      </c>
+      <c r="C918" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D918" s="1" t="s">
+        <v>3052</v>
+      </c>
       <c r="E918" s="1"/>
       <c r="F918" s="1"/>
     </row>
     <row r="919" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A919" s="1"/>
-      <c r="B919" s="1"/>
-      <c r="C919" s="1"/>
-      <c r="D919" s="1"/>
-      <c r="E919" s="1"/>
-      <c r="F919" s="1"/>
+      <c r="A919" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B919" s="1">
+        <v>25</v>
+      </c>
+      <c r="C919" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D919" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="E919" s="1" t="s">
+        <v>3053</v>
+      </c>
+      <c r="F919" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="920" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A920" s="1"/>
-      <c r="B920" s="1"/>
-      <c r="C920" s="1"/>
-      <c r="D920" s="1"/>
-      <c r="E920" s="1"/>
-      <c r="F920" s="1"/>
+      <c r="A920" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B920" s="1">
+        <v>26</v>
+      </c>
+      <c r="C920" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D920" s="1" t="s">
+        <v>1545</v>
+      </c>
+      <c r="E920" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="F920" s="1" t="s">
+        <v>3036</v>
+      </c>
     </row>
     <row r="921" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A921" s="1"/>
-      <c r="B921" s="1"/>
-      <c r="C921" s="1"/>
-      <c r="D921" s="1"/>
-      <c r="E921" s="1"/>
-      <c r="F921" s="1"/>
+      <c r="A921" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B921" s="1">
+        <v>27</v>
+      </c>
+      <c r="C921" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D921" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="E921" s="1" t="s">
+        <v>3054</v>
+      </c>
+      <c r="F921" s="1" t="s">
+        <v>2592</v>
+      </c>
     </row>
     <row r="922" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A922" s="1"/>
-      <c r="B922" s="1"/>
-      <c r="C922" s="1"/>
-      <c r="D922" s="1"/>
-      <c r="E922" s="1"/>
-      <c r="F922" s="1"/>
+      <c r="A922" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B922" s="1">
+        <v>28</v>
+      </c>
+      <c r="C922" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D922" s="1" t="s">
+        <v>3055</v>
+      </c>
+      <c r="E922" s="1" t="s">
+        <v>3056</v>
+      </c>
+      <c r="F922" s="1" t="s">
+        <v>3036</v>
+      </c>
     </row>
     <row r="923" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A923" s="1"/>
-      <c r="B923" s="1"/>
-      <c r="C923" s="1"/>
-      <c r="D923" s="1"/>
-      <c r="E923" s="1"/>
-      <c r="F923" s="1"/>
+      <c r="A923" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B923" s="1">
+        <v>29</v>
+      </c>
+      <c r="C923" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D923" s="1" t="s">
+        <v>3057</v>
+      </c>
+      <c r="E923" s="1" t="s">
+        <v>3058</v>
+      </c>
+      <c r="F923" s="1" t="s">
+        <v>3059</v>
+      </c>
     </row>
     <row r="924" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A924" s="1"/>
-      <c r="B924" s="1"/>
-      <c r="C924" s="1"/>
-      <c r="D924" s="1"/>
-      <c r="E924" s="1"/>
-      <c r="F924" s="1"/>
+      <c r="A924" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B924" s="1">
+        <v>30</v>
+      </c>
+      <c r="C924" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D924" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="E924" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="F924" s="1" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="925" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A925" s="1"/>
-      <c r="B925" s="1"/>
-      <c r="C925" s="1"/>
-      <c r="D925" s="1"/>
+      <c r="A925" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B925" s="1">
+        <v>31</v>
+      </c>
+      <c r="C925" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D925" s="1" t="s">
+        <v>214</v>
+      </c>
       <c r="E925" s="1"/>
       <c r="F925" s="1"/>
     </row>
     <row r="926" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A926" s="1"/>
-      <c r="B926" s="1"/>
-      <c r="C926" s="1"/>
-      <c r="D926" s="1"/>
+      <c r="A926" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B926" s="1">
+        <v>32</v>
+      </c>
+      <c r="C926" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D926" s="1" t="s">
+        <v>1436</v>
+      </c>
       <c r="E926" s="1"/>
       <c r="F926" s="1"/>
     </row>
     <row r="927" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A927" s="1"/>
-      <c r="B927" s="1"/>
-      <c r="C927" s="1"/>
-      <c r="D927" s="1"/>
+      <c r="A927" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B927" s="1">
+        <v>33</v>
+      </c>
+      <c r="C927" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D927" s="1" t="s">
+        <v>3060</v>
+      </c>
       <c r="E927" s="1"/>
       <c r="F927" s="1"/>
     </row>
     <row r="928" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A928" s="1"/>
-      <c r="B928" s="1"/>
-      <c r="C928" s="1"/>
-      <c r="D928" s="1"/>
-      <c r="E928" s="1"/>
-      <c r="F928" s="1"/>
+      <c r="A928" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B928" s="1">
+        <v>34</v>
+      </c>
+      <c r="C928" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D928" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E928" s="1" t="s">
+        <v>3056</v>
+      </c>
+      <c r="F928" s="1" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="929" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A929" s="1"/>
-      <c r="B929" s="1"/>
-      <c r="C929" s="1"/>
-      <c r="D929" s="1"/>
+      <c r="A929" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B929" s="1">
+        <v>35</v>
+      </c>
+      <c r="C929" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D929" s="1" t="s">
+        <v>3061</v>
+      </c>
       <c r="E929" s="1"/>
       <c r="F929" s="1"/>
     </row>
     <row r="930" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A930" s="1"/>
-      <c r="B930" s="1"/>
-      <c r="C930" s="1"/>
-      <c r="D930" s="1"/>
+      <c r="A930" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B930" s="1">
+        <v>36</v>
+      </c>
+      <c r="C930" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D930" s="1" t="s">
+        <v>1023</v>
+      </c>
       <c r="E930" s="1"/>
       <c r="F930" s="1"/>
     </row>
     <row r="931" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A931" s="1"/>
-      <c r="B931" s="1"/>
-      <c r="C931" s="1"/>
-      <c r="D931" s="1"/>
+      <c r="A931" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B931" s="1">
+        <v>37</v>
+      </c>
+      <c r="C931" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D931" s="1" t="s">
+        <v>2698</v>
+      </c>
       <c r="E931" s="1"/>
       <c r="F931" s="1"/>
     </row>
     <row r="932" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A932" s="1"/>
-      <c r="B932" s="1"/>
-      <c r="C932" s="1"/>
-      <c r="D932" s="1"/>
+      <c r="A932" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B932" s="1">
+        <v>38</v>
+      </c>
+      <c r="C932" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D932" s="1" t="s">
+        <v>3062</v>
+      </c>
       <c r="E932" s="1"/>
       <c r="F932" s="1"/>
     </row>
     <row r="933" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A933" s="1"/>
-      <c r="B933" s="1"/>
-      <c r="C933" s="1"/>
-      <c r="D933" s="1"/>
-      <c r="E933" s="1"/>
-      <c r="F933" s="1"/>
+      <c r="A933" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B933" s="1">
+        <v>1</v>
+      </c>
+      <c r="C933" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D933" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E933" s="1" t="s">
+        <v>2297</v>
+      </c>
+      <c r="F933" s="1" t="s">
+        <v>1255</v>
+      </c>
     </row>
     <row r="934" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A934" s="1"/>
-      <c r="B934" s="1"/>
-      <c r="C934" s="1"/>
-      <c r="D934" s="1"/>
-      <c r="E934" s="1"/>
-      <c r="F934" s="1"/>
+      <c r="A934" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B934" s="1">
+        <v>2</v>
+      </c>
+      <c r="C934" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D934" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="E934" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F934" s="1" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="935" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A935" s="1"/>
-      <c r="B935" s="1"/>
-      <c r="C935" s="1"/>
-      <c r="D935" s="1"/>
-      <c r="E935" s="1"/>
-      <c r="F935" s="1"/>
+      <c r="A935" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B935" s="1">
+        <v>3</v>
+      </c>
+      <c r="C935" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D935" s="1" t="s">
+        <v>2808</v>
+      </c>
+      <c r="E935" s="1" t="s">
+        <v>2809</v>
+      </c>
+      <c r="F935" s="1" t="s">
+        <v>2810</v>
+      </c>
     </row>
     <row r="936" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A936" s="1"/>
-      <c r="B936" s="1"/>
-      <c r="C936" s="1"/>
-      <c r="D936" s="1"/>
-      <c r="E936" s="1"/>
-      <c r="F936" s="1"/>
+      <c r="A936" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B936" s="1">
+        <v>4</v>
+      </c>
+      <c r="C936" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D936" s="1" t="s">
+        <v>2682</v>
+      </c>
+      <c r="E936" s="1" t="s">
+        <v>2811</v>
+      </c>
+      <c r="F936" s="1" t="s">
+        <v>2812</v>
+      </c>
     </row>
     <row r="937" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A937" s="1"/>
-      <c r="B937" s="1"/>
-      <c r="C937" s="1"/>
-      <c r="D937" s="1"/>
+      <c r="A937" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B937" s="1">
+        <v>5</v>
+      </c>
+      <c r="C937" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D937" s="1" t="s">
+        <v>2807</v>
+      </c>
       <c r="E937" s="1"/>
       <c r="F937" s="1"/>
     </row>
     <row r="938" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A938" s="1"/>
-      <c r="B938" s="1"/>
-      <c r="C938" s="1"/>
-      <c r="D938" s="1"/>
-      <c r="E938" s="1"/>
-      <c r="F938" s="1"/>
+      <c r="A938" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B938" s="1">
+        <v>6</v>
+      </c>
+      <c r="C938" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D938" s="1" t="s">
+        <v>2806</v>
+      </c>
+      <c r="E938" s="1" t="s">
+        <v>2813</v>
+      </c>
+      <c r="F938" s="1" t="s">
+        <v>2814</v>
+      </c>
     </row>
     <row r="939" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A939" s="1"/>
-      <c r="B939" s="1"/>
-      <c r="C939" s="1"/>
-      <c r="D939" s="1"/>
+      <c r="A939" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B939" s="1">
+        <v>7</v>
+      </c>
+      <c r="C939" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D939" s="1" t="s">
+        <v>2805</v>
+      </c>
       <c r="E939" s="1"/>
       <c r="F939" s="1"/>
     </row>
     <row r="940" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A940" s="1"/>
-      <c r="B940" s="1"/>
-      <c r="C940" s="1"/>
-      <c r="D940" s="1"/>
-      <c r="E940" s="1"/>
-      <c r="F940" s="1"/>
+      <c r="A940" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B940" s="1">
+        <v>8</v>
+      </c>
+      <c r="C940" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D940" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E940" s="1" t="s">
+        <v>1255</v>
+      </c>
+      <c r="F940" s="1" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="941" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A941" s="1"/>
-      <c r="B941" s="1"/>
-      <c r="C941" s="1"/>
-      <c r="D941" s="1"/>
+      <c r="A941" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B941" s="1">
+        <v>9</v>
+      </c>
+      <c r="C941" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D941" s="1" t="s">
+        <v>2141</v>
+      </c>
       <c r="E941" s="1"/>
       <c r="F941" s="1"/>
     </row>
     <row r="942" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A942" s="1"/>
-      <c r="B942" s="1"/>
-      <c r="C942" s="1"/>
-      <c r="D942" s="1"/>
-      <c r="E942" s="1"/>
-      <c r="F942" s="1"/>
+      <c r="A942" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B942" s="1">
+        <v>10</v>
+      </c>
+      <c r="C942" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D942" s="1" t="s">
+        <v>2804</v>
+      </c>
+      <c r="E942" s="1" t="s">
+        <v>2815</v>
+      </c>
+      <c r="F942" s="1" t="s">
+        <v>2816</v>
+      </c>
     </row>
     <row r="943" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A943" s="1"/>
-      <c r="B943" s="1"/>
-      <c r="C943" s="1"/>
-      <c r="D943" s="1"/>
+      <c r="A943" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B943" s="1">
+        <v>11</v>
+      </c>
+      <c r="C943" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D943" s="1" t="s">
+        <v>2803</v>
+      </c>
       <c r="E943" s="1"/>
       <c r="F943" s="1"/>
     </row>
     <row r="944" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A944" s="1"/>
-      <c r="B944" s="1"/>
-      <c r="C944" s="1"/>
-      <c r="D944" s="1"/>
-      <c r="E944" s="1"/>
-      <c r="F944" s="1"/>
+      <c r="A944" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B944" s="1">
+        <v>12</v>
+      </c>
+      <c r="C944" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D944" s="1" t="s">
+        <v>1545</v>
+      </c>
+      <c r="E944" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F944" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="945" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A945" s="1"/>
-      <c r="B945" s="1"/>
-      <c r="C945" s="1"/>
-      <c r="D945" s="1"/>
+      <c r="A945" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B945" s="1">
+        <v>13</v>
+      </c>
+      <c r="C945" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D945" s="1" t="s">
+        <v>2675</v>
+      </c>
       <c r="E945" s="1"/>
       <c r="F945" s="1"/>
     </row>
     <row r="946" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A946" s="1"/>
-      <c r="B946" s="1"/>
-      <c r="C946" s="1"/>
-      <c r="D946" s="1"/>
-      <c r="E946" s="1"/>
-      <c r="F946" s="1"/>
+      <c r="A946" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B946" s="1">
+        <v>14</v>
+      </c>
+      <c r="C946" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D946" s="1" t="s">
+        <v>1412</v>
+      </c>
+      <c r="E946" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="F946" s="1" t="s">
+        <v>1188</v>
+      </c>
     </row>
     <row r="947" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A947" s="1"/>
-      <c r="B947" s="1"/>
-      <c r="C947" s="1"/>
-      <c r="D947" s="1"/>
+      <c r="A947" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B947" s="1">
+        <v>15</v>
+      </c>
+      <c r="C947" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D947" s="1" t="s">
+        <v>2680</v>
+      </c>
       <c r="E947" s="1"/>
       <c r="F947" s="1"/>
     </row>
     <row r="948" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A948" s="1"/>
-      <c r="B948" s="1"/>
-      <c r="C948" s="1"/>
-      <c r="D948" s="1"/>
+      <c r="A948" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B948" s="1">
+        <v>16</v>
+      </c>
+      <c r="C948" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D948" s="1" t="s">
+        <v>2802</v>
+      </c>
       <c r="E948" s="1"/>
       <c r="F948" s="1"/>
     </row>
     <row r="949" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A949" s="1"/>
-      <c r="B949" s="1"/>
-      <c r="C949" s="1"/>
-      <c r="D949" s="1"/>
-      <c r="E949" s="1"/>
-      <c r="F949" s="1"/>
+      <c r="A949" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B949" s="1">
+        <v>17</v>
+      </c>
+      <c r="C949" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D949" s="1" t="s">
+        <v>2801</v>
+      </c>
+      <c r="E949" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="F949" s="1" t="s">
+        <v>2818</v>
+      </c>
     </row>
     <row r="950" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A950" s="1"/>
-      <c r="B950" s="1"/>
-      <c r="C950" s="1"/>
-      <c r="D950" s="1"/>
+      <c r="A950" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B950" s="1">
+        <v>18</v>
+      </c>
+      <c r="C950" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D950" s="1" t="s">
+        <v>871</v>
+      </c>
       <c r="E950" s="1"/>
       <c r="F950" s="1"/>
     </row>
     <row r="951" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A951" s="1"/>
-      <c r="B951" s="1"/>
-      <c r="C951" s="1"/>
-      <c r="D951" s="1"/>
+      <c r="A951" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B951" s="1">
+        <v>19</v>
+      </c>
+      <c r="C951" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D951" s="1" t="s">
+        <v>685</v>
+      </c>
       <c r="E951" s="1"/>
       <c r="F951" s="1"/>
     </row>
     <row r="952" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A952" s="1"/>
-      <c r="B952" s="1"/>
-      <c r="C952" s="1"/>
-      <c r="D952" s="1"/>
-      <c r="E952" s="1"/>
-      <c r="F952" s="1"/>
+      <c r="A952" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B952" s="1">
+        <v>20</v>
+      </c>
+      <c r="C952" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D952" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="E952" s="1" t="s">
+        <v>2819</v>
+      </c>
+      <c r="F952" s="1" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="953" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A953" s="1"/>
-      <c r="B953" s="1"/>
-      <c r="C953" s="1"/>
-      <c r="D953" s="1"/>
+      <c r="A953" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B953" s="1">
+        <v>21</v>
+      </c>
+      <c r="C953" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D953" s="1" t="s">
+        <v>2800</v>
+      </c>
       <c r="E953" s="1"/>
       <c r="F953" s="1"/>
     </row>
     <row r="954" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A954" s="1"/>
-      <c r="B954" s="1"/>
-      <c r="C954" s="1"/>
-      <c r="D954" s="1"/>
+      <c r="A954" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B954" s="1">
+        <v>22</v>
+      </c>
+      <c r="C954" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D954" s="1" t="s">
+        <v>2799</v>
+      </c>
       <c r="E954" s="1"/>
       <c r="F954" s="1"/>
     </row>
     <row r="955" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A955" s="1"/>
-      <c r="B955" s="1"/>
-      <c r="C955" s="1"/>
-      <c r="D955" s="1"/>
-      <c r="E955" s="1"/>
-      <c r="F955" s="1"/>
+      <c r="A955" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B955" s="1">
+        <v>23</v>
+      </c>
+      <c r="C955" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D955" s="1" t="s">
+        <v>2798</v>
+      </c>
+      <c r="E955" s="1" t="s">
+        <v>2820</v>
+      </c>
+      <c r="F955" s="1" t="s">
+        <v>2821</v>
+      </c>
     </row>
     <row r="956" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A956" s="1"/>
-      <c r="B956" s="1"/>
-      <c r="C956" s="1"/>
-      <c r="D956" s="1"/>
+      <c r="A956" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B956" s="1">
+        <v>24</v>
+      </c>
+      <c r="C956" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D956" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="E956" s="1"/>
       <c r="F956" s="1"/>
     </row>
     <row r="957" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A957" s="1"/>
-      <c r="B957" s="1"/>
-      <c r="C957" s="1"/>
-      <c r="D957" s="1"/>
-      <c r="E957" s="1"/>
-      <c r="F957" s="1"/>
+      <c r="A957" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B957" s="1">
+        <v>25</v>
+      </c>
+      <c r="C957" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D957" s="1" t="s">
+        <v>2797</v>
+      </c>
+      <c r="E957" s="1" t="s">
+        <v>2822</v>
+      </c>
+      <c r="F957" s="1" t="s">
+        <v>2789</v>
+      </c>
     </row>
     <row r="958" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A958" s="1"/>
-      <c r="B958" s="1"/>
-      <c r="C958" s="1"/>
-      <c r="D958" s="1"/>
+      <c r="A958" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B958" s="1">
+        <v>26</v>
+      </c>
+      <c r="C958" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D958" s="1" t="s">
+        <v>2551</v>
+      </c>
       <c r="E958" s="1"/>
       <c r="F958" s="1"/>
     </row>
     <row r="959" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A959" s="1"/>
-      <c r="B959" s="1"/>
-      <c r="C959" s="1"/>
-      <c r="D959" s="1"/>
+      <c r="A959" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B959" s="1">
+        <v>27</v>
+      </c>
+      <c r="C959" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D959" s="1" t="s">
+        <v>2796</v>
+      </c>
       <c r="E959" s="1"/>
       <c r="F959" s="1"/>
     </row>
     <row r="960" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A960" s="1"/>
-      <c r="B960" s="1"/>
-      <c r="C960" s="1"/>
-      <c r="D960" s="1"/>
-      <c r="E960" s="1"/>
-      <c r="F960" s="1"/>
+      <c r="A960" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B960" s="1">
+        <v>28</v>
+      </c>
+      <c r="C960" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D960" s="1" t="s">
+        <v>2606</v>
+      </c>
+      <c r="E960" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F960" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="961" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A961" s="1"/>
-      <c r="B961" s="1"/>
-      <c r="C961" s="1"/>
-      <c r="D961" s="1"/>
-      <c r="E961" s="1"/>
-      <c r="F961" s="1"/>
+      <c r="A961" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B961" s="1">
+        <v>29</v>
+      </c>
+      <c r="C961" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D961" s="1" t="s">
+        <v>2795</v>
+      </c>
+      <c r="E961" s="1" t="s">
+        <v>2823</v>
+      </c>
+      <c r="F961" s="1" t="s">
+        <v>2824</v>
+      </c>
     </row>
     <row r="962" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A962" s="1"/>
-      <c r="B962" s="1"/>
-      <c r="C962" s="1"/>
-      <c r="D962" s="1"/>
+      <c r="A962" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B962" s="1">
+        <v>30</v>
+      </c>
+      <c r="C962" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D962" s="1" t="s">
+        <v>1398</v>
+      </c>
       <c r="E962" s="1"/>
       <c r="F962" s="1"/>
     </row>
     <row r="963" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A963" s="1"/>
-      <c r="B963" s="1"/>
-      <c r="C963" s="1"/>
-      <c r="D963" s="1"/>
-      <c r="E963" s="1"/>
-      <c r="F963" s="1"/>
+      <c r="A963" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B963" s="1">
+        <v>31</v>
+      </c>
+      <c r="C963" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D963" s="1" t="s">
+        <v>2794</v>
+      </c>
+      <c r="E963" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F963" s="1" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="964" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A964" s="1"/>
-      <c r="B964" s="1"/>
-      <c r="C964" s="1"/>
-      <c r="D964" s="1"/>
+      <c r="A964" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B964" s="1">
+        <v>32</v>
+      </c>
+      <c r="C964" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D964" s="1" t="s">
+        <v>2792</v>
+      </c>
       <c r="E964" s="1"/>
       <c r="F964" s="1"/>
     </row>
     <row r="965" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A965" s="1"/>
-      <c r="B965" s="1"/>
-      <c r="C965" s="1"/>
-      <c r="D965" s="1"/>
-      <c r="E965" s="1"/>
-      <c r="F965" s="1"/>
+      <c r="A965" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B965" s="1">
+        <v>33</v>
+      </c>
+      <c r="C965" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D965" s="1" t="s">
+        <v>2791</v>
+      </c>
+      <c r="E965" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F965" s="1" t="s">
+        <v>2793</v>
+      </c>
     </row>
     <row r="966" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A966" s="1"/>
-      <c r="B966" s="1"/>
-      <c r="C966" s="1"/>
-      <c r="D966" s="1"/>
-      <c r="E966" s="1"/>
-      <c r="F966" s="1"/>
+      <c r="A966" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B966" s="1">
+        <v>34</v>
+      </c>
+      <c r="C966" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D966" s="1" t="s">
+        <v>2790</v>
+      </c>
+      <c r="E966" s="1" t="s">
+        <v>2825</v>
+      </c>
+      <c r="F966" s="1" t="s">
+        <v>2826</v>
+      </c>
     </row>
     <row r="967" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A967" s="1"/>
-      <c r="B967" s="1"/>
-      <c r="C967" s="1"/>
-      <c r="D967" s="1"/>
-      <c r="E967" s="1"/>
-      <c r="F967" s="1"/>
+      <c r="A967" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B967" s="1">
+        <v>35</v>
+      </c>
+      <c r="C967" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D967" s="1" t="s">
+        <v>2629</v>
+      </c>
+      <c r="E967" s="1" t="s">
+        <v>2598</v>
+      </c>
+      <c r="F967" s="1" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="968" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A968" s="1"/>
-      <c r="B968" s="1"/>
-      <c r="C968" s="1"/>
-      <c r="D968" s="1"/>
-      <c r="E968" s="1"/>
-      <c r="F968" s="1"/>
+      <c r="A968" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B968" s="1">
+        <v>36</v>
+      </c>
+      <c r="C968" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D968" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="E968" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="F968" s="1" t="s">
+        <v>2789</v>
+      </c>
     </row>
     <row r="969" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A969" s="1"/>
-      <c r="B969" s="1"/>
-      <c r="C969" s="1"/>
-      <c r="D969" s="1"/>
+      <c r="A969" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B969" s="1">
+        <v>37</v>
+      </c>
+      <c r="C969" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D969" s="1" t="s">
+        <v>255</v>
+      </c>
       <c r="E969" s="1"/>
       <c r="F969" s="1"/>
     </row>
     <row r="970" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A970" s="1"/>
-      <c r="B970" s="1"/>
-      <c r="C970" s="1"/>
-      <c r="D970" s="1"/>
-      <c r="E970" s="1"/>
-      <c r="F970" s="1"/>
+      <c r="A970" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B970" s="1">
+        <v>38</v>
+      </c>
+      <c r="C970" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D970" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="E970" s="1" t="s">
+        <v>2789</v>
+      </c>
+      <c r="F970" s="1" t="s">
+        <v>1266</v>
+      </c>
     </row>
     <row r="971" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A971" s="1"/>
-      <c r="B971" s="1"/>
-      <c r="C971" s="1"/>
-      <c r="D971" s="1"/>
-      <c r="E971" s="1"/>
-      <c r="F971" s="1"/>
+      <c r="A971" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B971" s="1">
+        <v>1</v>
+      </c>
+      <c r="C971" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D971" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E971" s="1" t="s">
+        <v>2599</v>
+      </c>
+      <c r="F971" s="1" t="s">
+        <v>2600</v>
+      </c>
     </row>
     <row r="972" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A972" s="1"/>
-      <c r="B972" s="1"/>
-      <c r="C972" s="1"/>
-      <c r="D972" s="1"/>
-      <c r="E972" s="1"/>
-      <c r="F972" s="1"/>
+      <c r="A972" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B972" s="1">
+        <v>2</v>
+      </c>
+      <c r="C972" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D972" s="1" t="s">
+        <v>2571</v>
+      </c>
+      <c r="E972" s="1" t="s">
+        <v>2288</v>
+      </c>
+      <c r="F972" s="1" t="s">
+        <v>2598</v>
+      </c>
     </row>
     <row r="973" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A973" s="1"/>
-      <c r="B973" s="1"/>
-      <c r="C973" s="1"/>
-      <c r="D973" s="1"/>
+      <c r="A973" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B973" s="1">
+        <v>3</v>
+      </c>
+      <c r="C973" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D973" s="1" t="s">
+        <v>2253</v>
+      </c>
       <c r="E973" s="1"/>
       <c r="F973" s="1"/>
     </row>
     <row r="974" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A974" s="1"/>
-      <c r="B974" s="1"/>
-      <c r="C974" s="1"/>
-      <c r="D974" s="1"/>
-      <c r="E974" s="1"/>
-      <c r="F974" s="1"/>
+      <c r="A974" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B974" s="1">
+        <v>4</v>
+      </c>
+      <c r="C974" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D974" s="1" t="s">
+        <v>1764</v>
+      </c>
+      <c r="E974" s="1" t="s">
+        <v>2596</v>
+      </c>
+      <c r="F974" s="1" t="s">
+        <v>2597</v>
+      </c>
     </row>
     <row r="975" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A975" s="1"/>
-      <c r="B975" s="1"/>
-      <c r="C975" s="1"/>
-      <c r="D975" s="1"/>
-      <c r="E975" s="1"/>
-      <c r="F975" s="1"/>
+      <c r="A975" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B975" s="1">
+        <v>5</v>
+      </c>
+      <c r="C975" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D975" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E975" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="F975" s="1" t="s">
+        <v>2595</v>
+      </c>
     </row>
     <row r="976" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A976" s="1"/>
-      <c r="B976" s="1"/>
-      <c r="C976" s="1"/>
-      <c r="D976" s="1"/>
+      <c r="A976" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B976" s="1">
+        <v>6</v>
+      </c>
+      <c r="C976" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D976" s="1" t="s">
+        <v>517</v>
+      </c>
       <c r="E976" s="1"/>
       <c r="F976" s="1"/>
     </row>
     <row r="977" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A977" s="1"/>
-      <c r="B977" s="1"/>
-      <c r="C977" s="1"/>
-      <c r="D977" s="1"/>
-      <c r="E977" s="1"/>
-      <c r="F977" s="1"/>
+      <c r="A977" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B977" s="1">
+        <v>7</v>
+      </c>
+      <c r="C977" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D977" s="1" t="s">
+        <v>2572</v>
+      </c>
+      <c r="E977" s="1" t="s">
+        <v>2593</v>
+      </c>
+      <c r="F977" s="1" t="s">
+        <v>2594</v>
+      </c>
     </row>
     <row r="978" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A978" s="1"/>
-      <c r="B978" s="1"/>
-      <c r="C978" s="1"/>
-      <c r="D978" s="1"/>
+      <c r="A978" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B978" s="1">
+        <v>8</v>
+      </c>
+      <c r="C978" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D978" s="1" t="s">
+        <v>316</v>
+      </c>
       <c r="E978" s="1"/>
       <c r="F978" s="1"/>
     </row>
     <row r="979" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A979" s="1"/>
-      <c r="B979" s="1"/>
-      <c r="C979" s="1"/>
-      <c r="D979" s="1"/>
-      <c r="E979" s="1"/>
-      <c r="F979" s="1"/>
+      <c r="A979" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B979" s="1">
+        <v>9</v>
+      </c>
+      <c r="C979" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D979" s="1" t="s">
+        <v>2573</v>
+      </c>
+      <c r="E979" s="1" t="s">
+        <v>2591</v>
+      </c>
+      <c r="F979" s="1" t="s">
+        <v>2592</v>
+      </c>
     </row>
     <row r="980" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A980" s="1"/>
-      <c r="B980" s="1"/>
-      <c r="C980" s="1"/>
-      <c r="D980" s="1"/>
-      <c r="E980" s="1"/>
-      <c r="F980" s="1"/>
+      <c r="A980" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B980" s="1">
+        <v>10</v>
+      </c>
+      <c r="C980" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D980" s="1" t="s">
+        <v>2574</v>
+      </c>
+      <c r="E980" s="1" t="s">
+        <v>2558</v>
+      </c>
+      <c r="F980" s="1" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="981" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A981" s="1"/>
-      <c r="B981" s="1"/>
-      <c r="C981" s="1"/>
-      <c r="D981" s="1"/>
-      <c r="E981" s="1"/>
-      <c r="F981" s="1"/>
+      <c r="A981" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B981" s="1">
+        <v>11</v>
+      </c>
+      <c r="C981" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D981" s="1" t="s">
+        <v>2575</v>
+      </c>
+      <c r="E981" s="1" t="s">
+        <v>2589</v>
+      </c>
+      <c r="F981" s="1" t="s">
+        <v>2590</v>
+      </c>
     </row>
     <row r="982" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A982" s="1"/>
-      <c r="B982" s="1"/>
-      <c r="C982" s="1"/>
-      <c r="D982" s="1"/>
-      <c r="E982" s="1"/>
-      <c r="F982" s="1"/>
+      <c r="A982" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B982" s="1">
+        <v>12</v>
+      </c>
+      <c r="C982" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D982" s="1" t="s">
+        <v>2576</v>
+      </c>
+      <c r="E982" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="F982" s="1" t="s">
+        <v>2588</v>
+      </c>
     </row>
     <row r="983" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A983" s="1"/>
-      <c r="B983" s="1"/>
-      <c r="C983" s="1"/>
-      <c r="D983" s="1"/>
+      <c r="A983" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B983" s="1">
+        <v>13</v>
+      </c>
+      <c r="C983" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D983" s="1" t="s">
+        <v>2577</v>
+      </c>
       <c r="E983" s="1"/>
       <c r="F983" s="1"/>
     </row>
     <row r="984" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A984" s="1"/>
-      <c r="B984" s="1"/>
-      <c r="C984" s="1"/>
-      <c r="D984" s="1"/>
-      <c r="E984" s="1"/>
-      <c r="F984" s="1"/>
+      <c r="A984" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B984" s="1">
+        <v>14</v>
+      </c>
+      <c r="C984" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D984" s="1" t="s">
+        <v>2578</v>
+      </c>
+      <c r="E984" s="1" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F984" s="1" t="s">
+        <v>2587</v>
+      </c>
     </row>
     <row r="985" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A985" s="1"/>
-      <c r="B985" s="1"/>
-      <c r="C985" s="1"/>
-      <c r="D985" s="1"/>
-      <c r="E985" s="1"/>
-      <c r="F985" s="1"/>
+      <c r="A985" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B985" s="1">
+        <v>15</v>
+      </c>
+      <c r="C985" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D985" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="E985" s="1" t="s">
+        <v>2584</v>
+      </c>
+      <c r="F985" s="1" t="s">
+        <v>2585</v>
+      </c>
     </row>
     <row r="986" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A986" s="1"/>
-      <c r="B986" s="1"/>
-      <c r="C986" s="1"/>
-      <c r="D986" s="1"/>
-      <c r="E986" s="1"/>
-      <c r="F986" s="1"/>
+      <c r="A986" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B986" s="1">
+        <v>16</v>
+      </c>
+      <c r="C986" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D986" s="1" t="s">
+        <v>2579</v>
+      </c>
+      <c r="E986" s="1" t="s">
+        <v>2582</v>
+      </c>
+      <c r="F986" s="1" t="s">
+        <v>2583</v>
+      </c>
     </row>
     <row r="987" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A987" s="1"/>
-      <c r="B987" s="1"/>
-      <c r="C987" s="1"/>
-      <c r="D987" s="1"/>
+      <c r="A987" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B987" s="1">
+        <v>17</v>
+      </c>
+      <c r="C987" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D987" s="1" t="s">
+        <v>315</v>
+      </c>
       <c r="E987" s="1"/>
       <c r="F987" s="1"/>
     </row>
     <row r="988" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A988" s="1"/>
-      <c r="B988" s="1"/>
-      <c r="C988" s="1"/>
-      <c r="D988" s="1"/>
-      <c r="E988" s="1"/>
+      <c r="A988" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B988" s="1">
+        <v>18</v>
+      </c>
+      <c r="C988" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D988" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="E988" s="1" t="s">
+        <v>2581</v>
+      </c>
       <c r="F988" s="1"/>
     </row>
     <row r="989" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A989" s="1"/>
-      <c r="B989" s="1"/>
-      <c r="C989" s="1"/>
-      <c r="D989" s="1"/>
+      <c r="A989" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B989" s="1">
+        <v>19</v>
+      </c>
+      <c r="C989" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D989" s="1" t="s">
+        <v>2580</v>
+      </c>
       <c r="E989" s="1"/>
       <c r="F989" s="1"/>
     </row>
     <row r="990" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A990" s="1"/>
-      <c r="B990" s="1"/>
-      <c r="C990" s="1"/>
-      <c r="D990" s="1"/>
-      <c r="E990" s="1"/>
-      <c r="F990" s="1"/>
+      <c r="A990" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B990" s="1">
+        <v>20</v>
+      </c>
+      <c r="C990" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D990" s="1" t="s">
+        <v>2555</v>
+      </c>
+      <c r="E990" s="1" t="s">
+        <v>2569</v>
+      </c>
+      <c r="F990" s="1" t="s">
+        <v>2570</v>
+      </c>
     </row>
     <row r="991" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A991" s="1"/>
-      <c r="B991" s="1"/>
-      <c r="C991" s="1"/>
-      <c r="D991" s="1"/>
-      <c r="E991" s="1"/>
+      <c r="A991" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B991" s="1">
+        <v>21</v>
+      </c>
+      <c r="C991" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D991" s="1" t="s">
+        <v>2554</v>
+      </c>
+      <c r="E991" s="1" t="s">
+        <v>1249</v>
+      </c>
       <c r="F991" s="1"/>
     </row>
     <row r="992" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A992" s="1"/>
-      <c r="B992" s="1"/>
-      <c r="C992" s="1"/>
-      <c r="D992" s="1"/>
+      <c r="A992" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B992" s="1">
+        <v>22</v>
+      </c>
+      <c r="C992" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D992" s="1" t="s">
+        <v>1436</v>
+      </c>
       <c r="E992" s="1"/>
       <c r="F992" s="1"/>
     </row>
     <row r="993" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A993" s="1"/>
-      <c r="B993" s="1"/>
-      <c r="C993" s="1"/>
-      <c r="D993" s="1"/>
-      <c r="E993" s="1"/>
-      <c r="F993" s="1"/>
+      <c r="A993" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B993" s="1">
+        <v>23</v>
+      </c>
+      <c r="C993" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D993" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="E993" s="1" t="s">
+        <v>2567</v>
+      </c>
+      <c r="F993" s="1" t="s">
+        <v>2568</v>
+      </c>
     </row>
     <row r="994" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A994" s="1"/>
-      <c r="B994" s="1"/>
-      <c r="C994" s="1"/>
-      <c r="D994" s="1"/>
+      <c r="A994" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B994" s="1">
+        <v>24</v>
+      </c>
+      <c r="C994" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D994" s="1" t="s">
+        <v>2553</v>
+      </c>
       <c r="E994" s="1"/>
       <c r="F994" s="1"/>
     </row>
     <row r="995" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A995" s="1"/>
-      <c r="B995" s="1"/>
-      <c r="C995" s="1"/>
-      <c r="D995" s="1"/>
-      <c r="E995" s="1"/>
-      <c r="F995" s="1"/>
+      <c r="A995" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B995" s="1">
+        <v>25</v>
+      </c>
+      <c r="C995" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D995" s="1" t="s">
+        <v>2552</v>
+      </c>
+      <c r="E995" s="1" t="s">
+        <v>2565</v>
+      </c>
+      <c r="F995" s="1" t="s">
+        <v>2566</v>
+      </c>
     </row>
     <row r="996" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A996" s="1"/>
-      <c r="B996" s="1"/>
-      <c r="C996" s="1"/>
-      <c r="D996" s="1"/>
+      <c r="A996" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B996" s="1">
+        <v>26</v>
+      </c>
+      <c r="C996" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D996" s="1" t="s">
+        <v>2355</v>
+      </c>
       <c r="E996" s="1"/>
       <c r="F996" s="1"/>
     </row>
     <row r="997" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A997" s="1"/>
-      <c r="B997" s="1"/>
-      <c r="C997" s="1"/>
-      <c r="D997" s="1"/>
+      <c r="A997" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B997" s="1">
+        <v>27</v>
+      </c>
+      <c r="C997" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D997" s="1" t="s">
+        <v>2551</v>
+      </c>
       <c r="E997" s="1"/>
       <c r="F997" s="1"/>
     </row>
     <row r="998" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A998" s="1"/>
-      <c r="B998" s="1"/>
-      <c r="C998" s="1"/>
-      <c r="D998" s="1"/>
-      <c r="E998" s="1"/>
-      <c r="F998" s="1"/>
+      <c r="A998" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B998" s="1">
+        <v>28</v>
+      </c>
+      <c r="C998" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D998" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E998" s="1" t="s">
+        <v>2563</v>
+      </c>
+      <c r="F998" s="1" t="s">
+        <v>2564</v>
+      </c>
     </row>
     <row r="999" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A999" s="1"/>
-      <c r="B999" s="1"/>
-      <c r="C999" s="1"/>
-      <c r="D999" s="1"/>
+      <c r="A999" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B999" s="1">
+        <v>29</v>
+      </c>
+      <c r="C999" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D999" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="E999" s="1"/>
       <c r="F999" s="1"/>
     </row>
     <row r="1000" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1000" s="1"/>
-      <c r="B1000" s="1"/>
-      <c r="C1000" s="1"/>
-      <c r="D1000" s="1"/>
-      <c r="E1000" s="1"/>
-      <c r="F1000" s="1"/>
+      <c r="A1000" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B1000" s="1">
+        <v>30</v>
+      </c>
+      <c r="C1000" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D1000" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="E1000" s="1" t="s">
+        <v>2558</v>
+      </c>
+      <c r="F1000" s="1" t="s">
+        <v>1266</v>
+      </c>
     </row>
     <row r="1001" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1001" s="1"/>
-      <c r="B1001" s="1"/>
-      <c r="C1001" s="1"/>
-      <c r="D1001" s="1"/>
+      <c r="A1001" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B1001" s="1">
+        <v>31</v>
+      </c>
+      <c r="C1001" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D1001" s="1" t="s">
+        <v>1766</v>
+      </c>
       <c r="E1001" s="1"/>
       <c r="F1001" s="1"/>
     </row>
     <row r="1002" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1002" s="1"/>
-      <c r="B1002" s="1"/>
-      <c r="C1002" s="1"/>
-      <c r="D1002" s="1"/>
+      <c r="A1002" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B1002" s="1">
+        <v>32</v>
+      </c>
+      <c r="C1002" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D1002" s="1" t="s">
+        <v>313</v>
+      </c>
       <c r="E1002" s="1"/>
       <c r="F1002" s="1"/>
     </row>
     <row r="1003" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1003" s="1"/>
-      <c r="B1003" s="1"/>
-      <c r="C1003" s="1"/>
-      <c r="D1003" s="1"/>
-      <c r="E1003" s="1"/>
-      <c r="F1003" s="1"/>
+      <c r="A1003" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B1003" s="1">
+        <v>33</v>
+      </c>
+      <c r="C1003" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D1003" s="1" t="s">
+        <v>2550</v>
+      </c>
+      <c r="E1003" s="1" t="s">
+        <v>2561</v>
+      </c>
+      <c r="F1003" s="1" t="s">
+        <v>2562</v>
+      </c>
     </row>
     <row r="1004" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1004" s="1"/>
-      <c r="B1004" s="1"/>
-      <c r="C1004" s="1"/>
-      <c r="D1004" s="1"/>
-      <c r="E1004" s="1"/>
-      <c r="F1004" s="1"/>
+      <c r="A1004" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B1004" s="1">
+        <v>34</v>
+      </c>
+      <c r="C1004" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D1004" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E1004" s="1" t="s">
+        <v>2559</v>
+      </c>
+      <c r="F1004" s="1" t="s">
+        <v>2288</v>
+      </c>
     </row>
     <row r="1005" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1005" s="1"/>
-      <c r="B1005" s="1"/>
-      <c r="C1005" s="1"/>
-      <c r="D1005" s="1"/>
-      <c r="E1005" s="1"/>
-      <c r="F1005" s="1"/>
+      <c r="A1005" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B1005" s="1">
+        <v>35</v>
+      </c>
+      <c r="C1005" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D1005" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E1005" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="F1005" s="1" t="s">
+        <v>2558</v>
+      </c>
     </row>
     <row r="1006" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1006" s="1"/>
-      <c r="B1006" s="1"/>
-      <c r="C1006" s="1"/>
-      <c r="D1006" s="1"/>
-      <c r="E1006" s="1"/>
+      <c r="A1006" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B1006" s="1">
+        <v>36</v>
+      </c>
+      <c r="C1006" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D1006" s="1" t="s">
+        <v>2549</v>
+      </c>
+      <c r="E1006" s="1" t="s">
+        <v>2557</v>
+      </c>
       <c r="F1006" s="1"/>
     </row>
     <row r="1007" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1007" s="1"/>
-      <c r="B1007" s="1"/>
-      <c r="C1007" s="1"/>
-      <c r="D1007" s="1"/>
-      <c r="E1007" s="1"/>
-      <c r="F1007" s="1"/>
+      <c r="A1007" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B1007" s="1">
+        <v>37</v>
+      </c>
+      <c r="C1007" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D1007" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="E1007" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="F1007" s="1" t="s">
+        <v>1255</v>
+      </c>
     </row>
     <row r="1008" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1008" s="1"/>
-      <c r="B1008" s="1"/>
-      <c r="C1008" s="1"/>
-      <c r="D1008" s="1"/>
-      <c r="E1008" s="1"/>
-      <c r="F1008" s="1"/>
+      <c r="A1008" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B1008" s="1">
+        <v>38</v>
+      </c>
+      <c r="C1008" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D1008" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="E1008" s="1" t="s">
+        <v>2556</v>
+      </c>
+      <c r="F1008" s="1" t="s">
+        <v>2560</v>
+      </c>
     </row>
     <row r="1009" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1009" s="1"/>
-      <c r="B1009" s="1"/>
-      <c r="C1009" s="1"/>
-      <c r="D1009" s="1"/>
-      <c r="E1009" s="1"/>
-      <c r="F1009" s="1"/>
+      <c r="A1009" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B1009" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1009" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D1009" s="1" t="s">
+        <v>2918</v>
+      </c>
+      <c r="E1009" s="1" t="s">
+        <v>2919</v>
+      </c>
+      <c r="F1009" s="1" t="s">
+        <v>2591</v>
+      </c>
     </row>
     <row r="1010" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1010" s="1"/>
-      <c r="B1010" s="1"/>
-      <c r="C1010" s="1"/>
-      <c r="D1010" s="1"/>
+      <c r="A1010" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B1010" s="1">
+        <v>2</v>
+      </c>
+      <c r="C1010" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D1010" s="1" t="s">
+        <v>322</v>
+      </c>
       <c r="E1010" s="1"/>
       <c r="F1010" s="1"/>
     </row>
     <row r="1011" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1011" s="1"/>
-      <c r="B1011" s="1"/>
-      <c r="C1011" s="1"/>
-      <c r="D1011" s="1"/>
-      <c r="E1011" s="1"/>
-      <c r="F1011" s="1"/>
+      <c r="A1011" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B1011" s="1">
+        <v>3</v>
+      </c>
+      <c r="C1011" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D1011" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="E1011" s="1" t="s">
+        <v>2983</v>
+      </c>
+      <c r="F1011" s="1" t="s">
+        <v>2559</v>
+      </c>
     </row>
     <row r="1012" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1012" s="1"/>
-      <c r="B1012" s="1"/>
-      <c r="C1012" s="1"/>
-      <c r="D1012" s="1"/>
-      <c r="E1012" s="1"/>
-      <c r="F1012" s="1"/>
+      <c r="A1012" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B1012" s="1">
+        <v>4</v>
+      </c>
+      <c r="C1012" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D1012" s="1" t="s">
+        <v>2795</v>
+      </c>
+      <c r="E1012" s="1" t="s">
+        <v>2984</v>
+      </c>
+      <c r="F1012" s="1" t="s">
+        <v>2985</v>
+      </c>
     </row>
     <row r="1013" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1013" s="1"/>
-      <c r="B1013" s="1"/>
-      <c r="C1013" s="1"/>
-      <c r="D1013" s="1"/>
+      <c r="A1013" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B1013" s="1">
+        <v>5</v>
+      </c>
+      <c r="C1013" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D1013" s="1" t="s">
+        <v>2986</v>
+      </c>
       <c r="E1013" s="1"/>
       <c r="F1013" s="1"/>
     </row>
     <row r="1014" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1014" s="1"/>
-      <c r="B1014" s="1"/>
-      <c r="C1014" s="1"/>
-      <c r="D1014" s="1"/>
-      <c r="E1014" s="1"/>
-      <c r="F1014" s="1"/>
+      <c r="A1014" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B1014" s="1">
+        <v>6</v>
+      </c>
+      <c r="C1014" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D1014" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E1014" s="1" t="s">
+        <v>2992</v>
+      </c>
+      <c r="F1014" s="1" t="s">
+        <v>1248</v>
+      </c>
     </row>
     <row r="1015" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1015" s="1"/>
@@ -57863,8 +60560,8 @@
       <c r="F1461" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F823">
-    <sortCondition ref="A2:A823"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F1014">
+    <sortCondition ref="A2:A1014"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Cruzeiro Mineiro.xlsx
+++ b/Cruzeiro Mineiro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7d1f36477029f8e0/Área de Trabalho/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1128" documentId="8_{29F0D014-0EEE-421E-9734-BCE3A86F6460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B3561ED-FD59-48EB-B89E-7BBE6A386BC7}"/>
+  <xr:revisionPtr revIDLastSave="1134" documentId="8_{29F0D014-0EEE-421E-9734-BCE3A86F6460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CEAECC72-1F43-4DFF-BC85-C26A3E75A74E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{97C8D34B-E831-4AB2-B3D5-BBDD2F70C2D4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="4" xr2:uid="{97C8D34B-E831-4AB2-B3D5-BBDD2F70C2D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Mineiro" sheetId="2" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7408" uniqueCount="3487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7412" uniqueCount="3489">
   <si>
     <t>Ano</t>
   </si>
@@ -10512,6 +10512,12 @@
   </si>
   <si>
     <t>Romero;Gabriel Barbosa</t>
+  </si>
+  <si>
+    <t>Kaio Jorge;Gabriel Barbosa</t>
+  </si>
+  <si>
+    <t>Romero;Sem ass</t>
   </si>
 </sst>
 </file>
@@ -10592,13 +10598,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -34626,7 +34631,7 @@
   <sheetPr codeName="Planilha3"/>
   <dimension ref="A1:H183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
@@ -38092,16 +38097,16 @@
       <c r="F182" s="1"/>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183" s="5">
+      <c r="A183" s="1">
         <v>2025</v>
       </c>
-      <c r="B183" s="5">
+      <c r="B183" s="1">
         <v>1</v>
       </c>
-      <c r="C183" s="5" t="s">
+      <c r="C183" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D183" s="5" t="s">
+      <c r="D183" s="1" t="s">
         <v>186</v>
       </c>
       <c r="E183" s="1" t="s">
@@ -38125,7 +38130,7 @@
   <sheetPr codeName="Planilha5"/>
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -38760,8 +38765,8 @@
   <sheetPr codeName="Planilha7"/>
   <dimension ref="A1:F1461"/>
   <sheetViews>
-    <sheetView topLeftCell="A370" workbookViewId="0">
-      <selection activeCell="C381" sqref="C381"/>
+    <sheetView topLeftCell="A1015" workbookViewId="0">
+      <selection activeCell="A1015" sqref="A1015"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57833,12 +57838,24 @@
       </c>
     </row>
     <row r="1015" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1015" s="1"/>
-      <c r="B1015" s="1"/>
-      <c r="C1015" s="1"/>
-      <c r="D1015" s="1"/>
-      <c r="E1015" s="1"/>
-      <c r="F1015" s="1"/>
+      <c r="A1015" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B1015" s="1">
+        <v>7</v>
+      </c>
+      <c r="C1015" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D1015" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1015" s="1" t="s">
+        <v>3487</v>
+      </c>
+      <c r="F1015" s="1" t="s">
+        <v>3488</v>
+      </c>
     </row>
     <row r="1016" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1016" s="1"/>

--- a/Cruzeiro Mineiro.xlsx
+++ b/Cruzeiro Mineiro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7d1f36477029f8e0/Área de Trabalho/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2238" documentId="8_{29F0D014-0EEE-421E-9734-BCE3A86F6460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5E665D1-231E-44D7-8991-91F22EFA8704}"/>
+  <xr:revisionPtr revIDLastSave="2297" documentId="8_{29F0D014-0EEE-421E-9734-BCE3A86F6460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24A714CC-9963-456F-870D-58CEC65C2B00}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="5" xr2:uid="{97C8D34B-E831-4AB2-B3D5-BBDD2F70C2D4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="4" xr2:uid="{97C8D34B-E831-4AB2-B3D5-BBDD2F70C2D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Mineiro" sheetId="2" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="Copa do Brasil" sheetId="3" r:id="rId4"/>
     <sheet name="Copa Sul-Americana" sheetId="6" r:id="rId5"/>
     <sheet name="Brasileiro" sheetId="8" r:id="rId6"/>
-    <sheet name="Serie B" sheetId="13" r:id="rId7"/>
-    <sheet name="Copa Mercosul" sheetId="5" r:id="rId8"/>
-    <sheet name="Sul-Minas" sheetId="9" r:id="rId9"/>
-    <sheet name="Supercopa" sheetId="10" r:id="rId10"/>
-    <sheet name="Seletiva Libertadores" sheetId="12" r:id="rId11"/>
-    <sheet name="Recopa Sul-Americana" sheetId="11" r:id="rId12"/>
-    <sheet name="Mundial de Clubes" sheetId="15" r:id="rId13"/>
+    <sheet name="Primeira Liga" sheetId="16" r:id="rId7"/>
+    <sheet name="Serie B" sheetId="13" r:id="rId8"/>
+    <sheet name="Copa Mercosul" sheetId="5" r:id="rId9"/>
+    <sheet name="Sul-Minas" sheetId="9" r:id="rId10"/>
+    <sheet name="Supercopa" sheetId="10" r:id="rId11"/>
+    <sheet name="Seletiva Libertadores" sheetId="12" r:id="rId12"/>
+    <sheet name="Recopa Sul-Americana" sheetId="11" r:id="rId13"/>
+    <sheet name="Mundial de Clubes" sheetId="15" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Mineiro!$A$1:$G$1</definedName>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8642" uniqueCount="3969">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8681" uniqueCount="3982">
   <si>
     <t>Ano</t>
   </si>
@@ -11958,6 +11959,45 @@
   </si>
   <si>
     <t>Macalé;Macalé;Verificar;Ronaldo</t>
+  </si>
+  <si>
+    <t>Primeira Liga</t>
+  </si>
+  <si>
+    <t>Cruzeiro 2x0 Chapecoense</t>
+  </si>
+  <si>
+    <t>Raniel;Arrascaeta</t>
+  </si>
+  <si>
+    <t>Londrina 2x2 Cruzeiro</t>
+  </si>
+  <si>
+    <t>Lucas Silva;Sassá</t>
+  </si>
+  <si>
+    <t>Criciuma 1x1 Cruzeiro</t>
+  </si>
+  <si>
+    <t>Cruzeiro 3x4 Fluminense</t>
+  </si>
+  <si>
+    <t>Rafael Silva;Arrascaeta;Rafael Silva</t>
+  </si>
+  <si>
+    <t>Douglas Coutinho;Elber Pimentel</t>
+  </si>
+  <si>
+    <t>Mushuc Runa 1x1 Cruzeiro</t>
+  </si>
+  <si>
+    <t>Sport 0x4 Cruzeiro</t>
+  </si>
+  <si>
+    <t>Gol contra;Kaio Jorge;Matheus Pereira;Matheus Pereira</t>
+  </si>
+  <si>
+    <t>Gol contra;Matheus Pereira;Kaio Jorge;Sem ass</t>
   </si>
 </sst>
 </file>
@@ -12038,13 +12078,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12060,6 +12099,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -33185,6 +33228,826 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDBF53D6-0AFE-4161-9A4F-3F722AEC9BF6}">
+  <sheetPr codeName="Planilha9"/>
+  <dimension ref="A1:F40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="54.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>2002</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1809</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1823</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2002</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1692</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1810</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1824</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2002</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1811</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>1828</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>2002</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1812</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>1829</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>2002</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1813</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>1832</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>2002</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1814</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>1835</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>2002</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1815</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>1831</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>2002</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1816</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>1851</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>2002</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1817</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>1831</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>2002</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1700</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>1818</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>1838</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>2002</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>1839</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>2002</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1702</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>1825</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>2002</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>1819</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>1841</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>2002</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>1820</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>1843</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>2002</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>1821</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>1844</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>2002</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>1815</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>2002</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>1822</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>2002</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>1848</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>2002</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>1317</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>2001</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>1673</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>1852</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>2001</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>1874</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>1875</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>2001</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>1877</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>2001</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>1878</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>1879</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>2001</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>2001</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>1881</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>2001</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>1822</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>2001</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>1884</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>2001</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>1718</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>1886</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>1887</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>2001</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>1859</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>1889</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>1855</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>1854</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>1721</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>1856</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>1857</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>1858</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>1859</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>1867</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>1725</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>1860</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>1868</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>1861</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>1869</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>1862</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>1871</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>1863</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>1864</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>1872</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F40">
+    <sortCondition descending="1" ref="A2:A40"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC234612-95A5-467E-A37F-64ADE6B1DA62}">
   <sheetPr codeName="Planilha10"/>
   <dimension ref="A1:I61"/>
@@ -34273,7 +35136,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22B5C7EA-D77D-4349-839E-37F524F7B296}">
   <sheetPr codeName="Planilha11"/>
   <dimension ref="A1:F9"/>
@@ -34474,7 +35337,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0C2160B-6F4B-4A2B-B618-F8F60F426152}">
   <sheetPr codeName="Planilha12"/>
   <dimension ref="A1:F4"/>
@@ -34565,7 +35428,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A52E767-58BB-41CA-A557-7C0A2EAB60EE}">
   <sheetPr codeName="Planilha13"/>
   <dimension ref="A1:F4"/>
@@ -41623,10 +42486,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E04779A-3459-4B0C-9E07-2670E636DDB1}">
   <sheetPr codeName="Planilha5"/>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42250,6 +43113,24 @@
         <v>2961</v>
       </c>
     </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B34" s="1">
+        <v>4</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>3978</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>2967</v>
+      </c>
+      <c r="F34" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -42260,8 +43141,8 @@
   <sheetPr codeName="Planilha7"/>
   <dimension ref="A1:F1461"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
-      <selection activeCell="E194" sqref="E194"/>
+    <sheetView topLeftCell="A1158" workbookViewId="0">
+      <selection activeCell="A1177" sqref="A1177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53339,7 +54220,6 @@
       <c r="D596" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E596" s="5"/>
       <c r="F596" s="1"/>
     </row>
     <row r="597" spans="1:6" x14ac:dyDescent="0.25">
@@ -63623,7 +64503,7 @@
       <c r="D1143" s="1" t="s">
         <v>2552</v>
       </c>
-      <c r="E1143" s="5" t="s">
+      <c r="E1143" t="s">
         <v>1265</v>
       </c>
       <c r="F1143" s="1" t="s">
@@ -64237,12 +65117,24 @@
       </c>
     </row>
     <row r="1177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1177" s="1"/>
-      <c r="B1177" s="1"/>
-      <c r="C1177" s="1"/>
-      <c r="D1177" s="1"/>
-      <c r="E1177" s="1"/>
-      <c r="F1177" s="1"/>
+      <c r="A1177" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B1177" s="1">
+        <v>8</v>
+      </c>
+      <c r="C1177" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D1177" s="1" t="s">
+        <v>3979</v>
+      </c>
+      <c r="E1177" s="1" t="s">
+        <v>3980</v>
+      </c>
+      <c r="F1177" s="1" t="s">
+        <v>3981</v>
+      </c>
     </row>
     <row r="1178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1178" s="1"/>
@@ -66526,12 +67418,212 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95F1CADB-A2B9-4D92-8F3A-7EF733D54A62}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3969</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3548</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3969</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3970</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3280</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>2568</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>3969</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1877</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3969</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>3971</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3969</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>3972</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>3973</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>3969</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>3974</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>3969</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>3975</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>3976</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>3969</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>3977</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E0BED3-1B1B-4AA0-B0AB-8CE6AB634E11}">
   <sheetPr codeName="Planilha8"/>
   <dimension ref="A1:G115"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="E74" sqref="E74"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -68848,7 +69940,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118FA9F9-3345-45AD-BC43-52143213E6FA}">
   <sheetPr codeName="Planilha6"/>
   <dimension ref="A1:F36"/>
@@ -69565,824 +70657,4 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDBF53D6-0AFE-4161-9A4F-3F722AEC9BF6}">
-  <sheetPr codeName="Planilha9"/>
-  <dimension ref="A1:F40"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="59.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="54.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1241</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1224</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1239</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>2002</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1691</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1808</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1809</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>1823</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>1825</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2002</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1692</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1808</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>1810</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>1824</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>1826</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2002</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1693</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>1808</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>1811</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>1828</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>1827</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>2002</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1694</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>1808</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>1812</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>1829</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>1830</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>2002</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>1695</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>1808</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>1813</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>1832</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>1833</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>2002</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>1696</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>1808</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>1814</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>1835</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>1836</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>2002</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1697</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>1808</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>1815</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>1831</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>1837</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>2002</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>1698</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>1808</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>1816</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>1851</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>1850</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>2002</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>1699</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>1808</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>1817</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>1831</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>1837</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>2002</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>1700</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>1808</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>1818</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>1838</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>1837</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>2002</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>1701</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>1808</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>1839</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>1840</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>2002</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>1702</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>1808</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>1365</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>1825</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>1834</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>2002</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>1703</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>1808</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>1819</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>1841</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>1842</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>2002</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>1704</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>1808</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>1820</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>1843</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>1469</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>2002</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>1705</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>1808</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>1821</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>1844</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>1845</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>2002</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>1706</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>1808</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>1815</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>844</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>1846</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>2002</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>1707</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>1808</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>1822</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>844</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>1837</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>2002</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>1708</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>1808</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>1848</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>1847</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>2002</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>1709</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>1808</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>1164</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>1317</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>1849</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>2001</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>1710</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>1808</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>1852</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>1873</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>2001</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>1711</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>1808</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>1874</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>1875</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>1876</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>2001</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>1712</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>1808</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>1877</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>2001</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>1713</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>1808</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>1878</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>1879</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>1880</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>2001</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>1714</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>1808</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>890</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>2001</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>1715</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>1808</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>1881</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>1882</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>2001</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>1716</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>1808</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>1822</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>863</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>1883</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>2001</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>1717</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>1808</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>1587</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>1884</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>1885</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>2001</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>1718</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>1808</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>1886</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>1887</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>1888</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>2001</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>1719</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>1808</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>1859</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>1889</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>1890</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>2000</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>1720</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>1808</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>1855</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>1854</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>1853</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>2000</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>1721</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>1808</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>1856</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>2000</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>1722</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>1808</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>1857</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>2000</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>1723</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>1808</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>1858</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>1865</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>2000</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>1724</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>1808</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>1859</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>1867</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>2000</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>1725</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>1808</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>1860</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>1868</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>2000</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>1726</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>1808</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>1861</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>1869</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>1870</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>2000</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>1727</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>1808</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>1862</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>1871</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>2000</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>1728</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>1808</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>1863</v>
-      </c>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>2000</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>1729</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>1808</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>1864</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>1872</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F40">
-    <sortCondition descending="1" ref="A2:A40"/>
-  </sortState>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>
--- a/Cruzeiro Mineiro.xlsx
+++ b/Cruzeiro Mineiro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7d1f36477029f8e0/Área de Trabalho/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2303" documentId="8_{29F0D014-0EEE-421E-9734-BCE3A86F6460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89CD461B-D824-4DA8-9A4E-6A9FECD72816}"/>
+  <xr:revisionPtr revIDLastSave="2304" documentId="8_{29F0D014-0EEE-421E-9734-BCE3A86F6460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FFD23642-E698-440E-BFED-B5A3AC4F452E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="4" activeTab="4" xr2:uid="{97C8D34B-E831-4AB2-B3D5-BBDD2F70C2D4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="4" activeTab="5" xr2:uid="{97C8D34B-E831-4AB2-B3D5-BBDD2F70C2D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Mineiro" sheetId="2" r:id="rId1"/>
@@ -3303,7 +3303,7 @@
     <t>Matheus Henrique;Gabriel Barbosa;Dudu</t>
   </si>
   <si>
-    <t>Sem ass;Penalti;Marquinhos</t>
+    <t>Bolasie;Penalti;Marquinhos</t>
   </si>
   <si>
     <t>William;</t>
@@ -12427,8 +12427,8 @@
   <sheetPr codeName="Planilha2"/>
   <dimension ref="A1:G1508"/>
   <sheetViews>
-    <sheetView topLeftCell="A594" workbookViewId="0">
-      <selection activeCell="E600" sqref="E600"/>
+    <sheetView topLeftCell="A788" workbookViewId="0">
+      <selection activeCell="D807" sqref="D807"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -42490,8 +42490,8 @@
   <sheetPr codeName="Planilha5"/>
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -43164,8 +43164,8 @@
   <sheetPr codeName="Planilha7"/>
   <dimension ref="A1:F1461"/>
   <sheetViews>
-    <sheetView topLeftCell="A1158" workbookViewId="0">
-      <selection activeCell="A1177" sqref="A1177"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Cruzeiro Mineiro.xlsx
+++ b/Cruzeiro Mineiro.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7d1f36477029f8e0/Área de Trabalho/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2322" documentId="8_{29F0D014-0EEE-421E-9734-BCE3A86F6460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{867CD578-2096-4961-B18A-83A4EEC2790C}"/>
+  <xr:revisionPtr revIDLastSave="2338" documentId="8_{29F0D014-0EEE-421E-9734-BCE3A86F6460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44C45C45-C028-4591-8BB4-FC6ED0751CBA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="4" xr2:uid="{97C8D34B-E831-4AB2-B3D5-BBDD2F70C2D4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="4" activeTab="5" xr2:uid="{97C8D34B-E831-4AB2-B3D5-BBDD2F70C2D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Mineiro" sheetId="2" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8695" uniqueCount="3989">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8705" uniqueCount="3994">
   <si>
     <t>Ano</t>
   </si>
@@ -12019,6 +12019,21 @@
   </si>
   <si>
     <t>Gabriel Barbosa;Bolasie;Matheus Pereira</t>
+  </si>
+  <si>
+    <t>Vitória 0x0 Cruzeiro</t>
+  </si>
+  <si>
+    <t>Cruzeiro 4x1 Grêmio</t>
+  </si>
+  <si>
+    <t>Kaio Jorge;Villalba;Kaio Jorge;Kaio Jorge</t>
+  </si>
+  <si>
+    <t>Kaiki;Jonathan Jesus</t>
+  </si>
+  <si>
+    <t>Matheus Pereira;Christian;Matheus Pereira;Romero</t>
   </si>
 </sst>
 </file>
@@ -42529,7 +42544,7 @@
   <sheetPr codeName="Planilha5"/>
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -43203,8 +43218,8 @@
   <sheetPr codeName="Planilha7"/>
   <dimension ref="A1:F1461"/>
   <sheetViews>
-    <sheetView topLeftCell="A1160" workbookViewId="0">
-      <selection activeCell="A1180" sqref="A1180"/>
+    <sheetView tabSelected="1" topLeftCell="A1162" workbookViewId="0">
+      <selection activeCell="A1182" sqref="A1182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -65235,28 +65250,60 @@
       </c>
     </row>
     <row r="1180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1180" s="1"/>
-      <c r="B1180" s="1"/>
-      <c r="C1180" s="1"/>
-      <c r="D1180" s="1"/>
-      <c r="E1180" s="1"/>
-      <c r="F1180" s="1"/>
+      <c r="A1180" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B1180" s="1">
+        <v>11</v>
+      </c>
+      <c r="C1180" s="1" t="s">
+        <v>1958</v>
+      </c>
+      <c r="D1180" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E1180" s="1" t="s">
+        <v>1898</v>
+      </c>
+      <c r="F1180" s="1" t="s">
+        <v>3992</v>
+      </c>
     </row>
     <row r="1181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1181" s="1"/>
-      <c r="B1181" s="1"/>
-      <c r="C1181" s="1"/>
-      <c r="D1181" s="1"/>
+      <c r="A1181" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B1181" s="1">
+        <v>12</v>
+      </c>
+      <c r="C1181" s="1" t="s">
+        <v>1958</v>
+      </c>
+      <c r="D1181" s="1" t="s">
+        <v>3989</v>
+      </c>
       <c r="E1181" s="1"/>
       <c r="F1181" s="1"/>
     </row>
     <row r="1182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1182" s="1"/>
-      <c r="B1182" s="1"/>
-      <c r="C1182" s="1"/>
-      <c r="D1182" s="1"/>
-      <c r="E1182" s="1"/>
-      <c r="F1182" s="1"/>
+      <c r="A1182" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B1182" s="1">
+        <v>13</v>
+      </c>
+      <c r="C1182" s="1" t="s">
+        <v>1958</v>
+      </c>
+      <c r="D1182" s="1" t="s">
+        <v>3990</v>
+      </c>
+      <c r="E1182" s="1" t="s">
+        <v>3991</v>
+      </c>
+      <c r="F1182" s="1" t="s">
+        <v>3993</v>
+      </c>
     </row>
     <row r="1183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1183" s="1"/>

--- a/Cruzeiro Mineiro.xlsx
+++ b/Cruzeiro Mineiro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7d1f36477029f8e0/Área de Trabalho/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2338" documentId="8_{29F0D014-0EEE-421E-9734-BCE3A86F6460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44C45C45-C028-4591-8BB4-FC6ED0751CBA}"/>
+  <xr:revisionPtr revIDLastSave="2344" documentId="8_{29F0D014-0EEE-421E-9734-BCE3A86F6460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25DA3662-D54A-42B8-906D-856DD0750BEE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="4" activeTab="5" xr2:uid="{97C8D34B-E831-4AB2-B3D5-BBDD2F70C2D4}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8705" uniqueCount="3994">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8709" uniqueCount="3996">
   <si>
     <t>Ano</t>
   </si>
@@ -12034,6 +12034,12 @@
   </si>
   <si>
     <t>Matheus Pereira;Christian;Matheus Pereira;Romero</t>
+  </si>
+  <si>
+    <t>Fabricio Bruno;Kaio Jorge</t>
+  </si>
+  <si>
+    <t>Matheus Pereira;Matheus Pereira</t>
   </si>
 </sst>
 </file>
@@ -43218,8 +43224,8 @@
   <sheetPr codeName="Planilha7"/>
   <dimension ref="A1:F1461"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1162" workbookViewId="0">
-      <selection activeCell="A1182" sqref="A1182"/>
+    <sheetView tabSelected="1" topLeftCell="A1165" workbookViewId="0">
+      <selection activeCell="A1183" sqref="A1183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -65306,12 +65312,24 @@
       </c>
     </row>
     <row r="1183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1183" s="1"/>
-      <c r="B1183" s="1"/>
-      <c r="C1183" s="1"/>
-      <c r="D1183" s="1"/>
-      <c r="E1183" s="1"/>
-      <c r="F1183" s="1"/>
+      <c r="A1183" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B1183" s="1">
+        <v>14</v>
+      </c>
+      <c r="C1183" s="1" t="s">
+        <v>1958</v>
+      </c>
+      <c r="D1183" s="1" t="s">
+        <v>2235</v>
+      </c>
+      <c r="E1183" s="1" t="s">
+        <v>3994</v>
+      </c>
+      <c r="F1183" s="1" t="s">
+        <v>3995</v>
+      </c>
     </row>
     <row r="1184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1184" s="1"/>

--- a/Cruzeiro Mineiro.xlsx
+++ b/Cruzeiro Mineiro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7d1f36477029f8e0/Área de Trabalho/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2344" documentId="8_{29F0D014-0EEE-421E-9734-BCE3A86F6460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25DA3662-D54A-42B8-906D-856DD0750BEE}"/>
+  <xr:revisionPtr revIDLastSave="2350" documentId="8_{29F0D014-0EEE-421E-9734-BCE3A86F6460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE2A0016-9FD0-4ED6-B7A9-DB7B22FDEDFD}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="4" activeTab="5" xr2:uid="{97C8D34B-E831-4AB2-B3D5-BBDD2F70C2D4}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8709" uniqueCount="3996">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8713" uniqueCount="3999">
   <si>
     <t>Ano</t>
   </si>
@@ -12040,6 +12040,15 @@
   </si>
   <si>
     <t>Matheus Pereira;Matheus Pereira</t>
+  </si>
+  <si>
+    <t>Cruzeiro 4x0 Juventude</t>
+  </si>
+  <si>
+    <t>Christian;Gabriel Barbosa;Gabriel Barbosa;Eduardo</t>
+  </si>
+  <si>
+    <t>Kaio Jorge;Kaio Jorge;Penalti;Bolasie</t>
   </si>
 </sst>
 </file>
@@ -43225,7 +43234,7 @@
   <dimension ref="A1:F1461"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1165" workbookViewId="0">
-      <selection activeCell="A1183" sqref="A1183"/>
+      <selection activeCell="B1184" sqref="B1184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -65332,12 +65341,24 @@
       </c>
     </row>
     <row r="1184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1184" s="1"/>
-      <c r="B1184" s="1"/>
-      <c r="C1184" s="1"/>
-      <c r="D1184" s="1"/>
-      <c r="E1184" s="1"/>
-      <c r="F1184" s="1"/>
+      <c r="A1184" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B1184" s="1">
+        <v>15</v>
+      </c>
+      <c r="C1184" s="1" t="s">
+        <v>1958</v>
+      </c>
+      <c r="D1184" s="1" t="s">
+        <v>3996</v>
+      </c>
+      <c r="E1184" s="1" t="s">
+        <v>3997</v>
+      </c>
+      <c r="F1184" s="1" t="s">
+        <v>3998</v>
+      </c>
     </row>
     <row r="1185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1185" s="1"/>
